--- a/InputData/36Cl_data_CRONUS.xlsx
+++ b/InputData/36Cl_data_CRONUS.xlsx
@@ -1,25 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20383"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20385"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r_ott\Dropbox\Richard\Crete\Cretan_fans\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r_ott\Dropbox\Richard\PhD_ETH\matlab\My_36Cl_codes\Postburial_production\InputData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ADA0D81-467B-45A8-AB9C-C7A81B9BA1CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DCD664A-50F7-4051-B7BC-C109E6D43C00}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="36Cl-input" sheetId="1" r:id="rId1"/>
-    <sheet name="Matlab Postburial" sheetId="3" r:id="rId2"/>
-    <sheet name="Matlab Erate uncorrected" sheetId="4" r:id="rId3"/>
-    <sheet name="Matlab Erates model1" sheetId="5" r:id="rId4"/>
-    <sheet name="Matlab Erates model2" sheetId="6" r:id="rId5"/>
+    <sheet name="Matlab Postburial" sheetId="3" r:id="rId1"/>
+    <sheet name="Matlab Erate uncorrected" sheetId="4" r:id="rId2"/>
+    <sheet name="Matlab Erates model1" sheetId="5" r:id="rId3"/>
+    <sheet name="Matlab Erates model2" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,16 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="81">
-  <si>
-    <t>Erosion rates</t>
-  </si>
-  <si>
-    <t>Uncertainty</t>
-  </si>
-  <si>
-    <t>Covar</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="73">
   <si>
     <t>Name</t>
   </si>
@@ -235,21 +225,6 @@
     <t>SF-919-15</t>
   </si>
   <si>
-    <t>Age deposit</t>
-  </si>
-  <si>
-    <t>Age uncert</t>
-  </si>
-  <si>
-    <t>ka</t>
-  </si>
-  <si>
-    <t>fraction Calcite in bedrock</t>
-  </si>
-  <si>
-    <t>fraction Calcite in soil</t>
-  </si>
-  <si>
     <t>Depth to Top of sample (m)</t>
   </si>
   <si>
@@ -283,18 +258,13 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -350,39 +320,30 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -664,2772 +625,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CF16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B21" sqref="B21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="17.85546875" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" customWidth="1"/>
-    <col min="13" max="13" width="21.5703125" customWidth="1"/>
-    <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.42578125" customWidth="1"/>
-    <col min="26" max="26" width="15.28515625" customWidth="1"/>
-    <col min="36" max="38" width="15" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="14.28515625" customWidth="1"/>
-    <col min="49" max="49" width="16.140625" customWidth="1"/>
-    <col min="50" max="50" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="22" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="12.7109375" customWidth="1"/>
-    <col min="82" max="82" width="11.28515625" customWidth="1"/>
-    <col min="83" max="83" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="20.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="AO3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>1</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>1</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>1</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>1</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>1</v>
-      </c>
-      <c r="BE3" t="s">
-        <v>1</v>
-      </c>
-      <c r="BF3" t="s">
-        <v>1</v>
-      </c>
-      <c r="BG3" t="s">
-        <v>1</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>1</v>
-      </c>
-      <c r="BI3" t="s">
-        <v>1</v>
-      </c>
-      <c r="BJ3" t="s">
-        <v>1</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>1</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>1</v>
-      </c>
-      <c r="BM3" t="s">
-        <v>1</v>
-      </c>
-      <c r="BN3" t="s">
-        <v>1</v>
-      </c>
-      <c r="BO3" t="s">
-        <v>1</v>
-      </c>
-      <c r="BP3" t="s">
-        <v>1</v>
-      </c>
-      <c r="BQ3" t="s">
-        <v>1</v>
-      </c>
-      <c r="BR3" t="s">
-        <v>1</v>
-      </c>
-      <c r="BS3" t="s">
-        <v>1</v>
-      </c>
-      <c r="BT3" t="s">
-        <v>1</v>
-      </c>
-      <c r="BU3" t="s">
-        <v>1</v>
-      </c>
-      <c r="BV3" t="s">
-        <v>1</v>
-      </c>
-      <c r="BW3" t="s">
-        <v>1</v>
-      </c>
-      <c r="BX3" t="s">
-        <v>1</v>
-      </c>
-      <c r="BY3" t="s">
-        <v>1</v>
-      </c>
-      <c r="BZ3" t="s">
-        <v>1</v>
-      </c>
-      <c r="CA3" t="s">
-        <v>1</v>
-      </c>
-      <c r="CB3" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="CC3" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="CD3" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="CE3" t="s">
-        <v>71</v>
-      </c>
-      <c r="CF3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" t="s">
-        <v>14</v>
-      </c>
-      <c r="M4" t="s">
-        <v>15</v>
-      </c>
-      <c r="N4" t="s">
-        <v>16</v>
-      </c>
-      <c r="O4" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>19</v>
-      </c>
-      <c r="R4" t="s">
-        <v>20</v>
-      </c>
-      <c r="S4" t="s">
-        <v>21</v>
-      </c>
-      <c r="T4" t="s">
-        <v>22</v>
-      </c>
-      <c r="U4" t="s">
-        <v>23</v>
-      </c>
-      <c r="V4" t="s">
-        <v>24</v>
-      </c>
-      <c r="W4" t="s">
-        <v>25</v>
-      </c>
-      <c r="X4" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB4" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>42</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>4</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>6</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>8</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>10</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>11</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AY4" t="s">
-        <v>14</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>15</v>
-      </c>
-      <c r="BA4" t="s">
-        <v>16</v>
-      </c>
-      <c r="BB4" t="s">
-        <v>17</v>
-      </c>
-      <c r="BC4" t="s">
-        <v>18</v>
-      </c>
-      <c r="BD4" t="s">
-        <v>19</v>
-      </c>
-      <c r="BE4" t="s">
-        <v>20</v>
-      </c>
-      <c r="BF4" t="s">
-        <v>21</v>
-      </c>
-      <c r="BG4" t="s">
-        <v>22</v>
-      </c>
-      <c r="BH4" t="s">
-        <v>23</v>
-      </c>
-      <c r="BI4" t="s">
-        <v>24</v>
-      </c>
-      <c r="BJ4" t="s">
-        <v>25</v>
-      </c>
-      <c r="BK4" t="s">
-        <v>26</v>
-      </c>
-      <c r="BL4" t="s">
-        <v>27</v>
-      </c>
-      <c r="BM4" t="s">
-        <v>28</v>
-      </c>
-      <c r="BN4" t="s">
-        <v>29</v>
-      </c>
-      <c r="BO4" t="s">
-        <v>30</v>
-      </c>
-      <c r="BP4" t="s">
-        <v>31</v>
-      </c>
-      <c r="BQ4" t="s">
-        <v>32</v>
-      </c>
-      <c r="BR4" t="s">
-        <v>33</v>
-      </c>
-      <c r="BS4" t="s">
-        <v>34</v>
-      </c>
-      <c r="BT4" t="s">
-        <v>35</v>
-      </c>
-      <c r="BU4" t="s">
-        <v>36</v>
-      </c>
-      <c r="BV4" t="s">
-        <v>37</v>
-      </c>
-      <c r="BW4" t="s">
-        <v>38</v>
-      </c>
-      <c r="BX4" t="s">
-        <v>39</v>
-      </c>
-      <c r="BY4" t="s">
-        <v>40</v>
-      </c>
-      <c r="BZ4" t="s">
-        <v>41</v>
-      </c>
-      <c r="CA4" t="s">
-        <v>42</v>
-      </c>
-      <c r="CB4" s="12"/>
-      <c r="CC4" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="CD4" s="18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J5" t="s">
-        <v>51</v>
-      </c>
-      <c r="K5" t="s">
-        <v>52</v>
-      </c>
-      <c r="L5" t="s">
-        <v>53</v>
-      </c>
-      <c r="M5" t="s">
-        <v>53</v>
-      </c>
-      <c r="N5" t="s">
-        <v>54</v>
-      </c>
-      <c r="O5" t="s">
-        <v>55</v>
-      </c>
-      <c r="P5" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>56</v>
-      </c>
-      <c r="R5" t="s">
-        <v>56</v>
-      </c>
-      <c r="S5" t="s">
-        <v>56</v>
-      </c>
-      <c r="T5" t="s">
-        <v>56</v>
-      </c>
-      <c r="U5" t="s">
-        <v>56</v>
-      </c>
-      <c r="V5" t="s">
-        <v>56</v>
-      </c>
-      <c r="W5" t="s">
-        <v>56</v>
-      </c>
-      <c r="X5" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB5" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>59</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>44</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>44</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>45</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>47</v>
-      </c>
-      <c r="AT5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AU5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AV5" t="s">
-        <v>50</v>
-      </c>
-      <c r="AW5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AX5" t="s">
-        <v>52</v>
-      </c>
-      <c r="AY5" t="s">
-        <v>53</v>
-      </c>
-      <c r="AZ5" t="s">
-        <v>53</v>
-      </c>
-      <c r="BA5" t="s">
-        <v>54</v>
-      </c>
-      <c r="BB5" t="s">
-        <v>55</v>
-      </c>
-      <c r="BC5" t="s">
-        <v>56</v>
-      </c>
-      <c r="BD5" t="s">
-        <v>56</v>
-      </c>
-      <c r="BE5" t="s">
-        <v>56</v>
-      </c>
-      <c r="BF5" t="s">
-        <v>56</v>
-      </c>
-      <c r="BG5" t="s">
-        <v>56</v>
-      </c>
-      <c r="BH5" t="s">
-        <v>56</v>
-      </c>
-      <c r="BI5" t="s">
-        <v>56</v>
-      </c>
-      <c r="BJ5" t="s">
-        <v>56</v>
-      </c>
-      <c r="BK5" t="s">
-        <v>56</v>
-      </c>
-      <c r="BL5" t="s">
-        <v>56</v>
-      </c>
-      <c r="BM5" t="s">
-        <v>56</v>
-      </c>
-      <c r="BN5" t="s">
-        <v>56</v>
-      </c>
-      <c r="BO5" t="s">
-        <v>57</v>
-      </c>
-      <c r="BP5" t="s">
-        <v>57</v>
-      </c>
-      <c r="BQ5" t="s">
-        <v>57</v>
-      </c>
-      <c r="BR5" t="s">
-        <v>57</v>
-      </c>
-      <c r="BS5" t="s">
-        <v>57</v>
-      </c>
-      <c r="BT5" t="s">
-        <v>57</v>
-      </c>
-      <c r="BU5" t="s">
-        <v>57</v>
-      </c>
-      <c r="BV5" t="s">
-        <v>57</v>
-      </c>
-      <c r="BW5" t="s">
-        <v>58</v>
-      </c>
-      <c r="BX5" t="s">
-        <v>58</v>
-      </c>
-      <c r="BY5" t="s">
-        <v>58</v>
-      </c>
-      <c r="BZ5" t="s">
-        <v>58</v>
-      </c>
-      <c r="CA5" t="s">
-        <v>59</v>
-      </c>
-      <c r="CB5" s="12"/>
-    </row>
-    <row r="6" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6">
-        <v>35.306624999999997</v>
-      </c>
-      <c r="C6">
-        <v>23.554874000000002</v>
-      </c>
-      <c r="D6">
-        <v>174</v>
-      </c>
-      <c r="E6">
-        <v>992.5</v>
-      </c>
-      <c r="F6" s="13">
-        <v>0.25</v>
-      </c>
-      <c r="G6">
-        <v>2.6</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>76000</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>153</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>2019</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" s="16">
-        <v>6.07</v>
-      </c>
-      <c r="Q6" s="17">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="R6" s="16">
-        <v>1.17</v>
-      </c>
-      <c r="S6" s="16">
-        <v>0.89</v>
-      </c>
-      <c r="T6" s="17">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="U6" s="16">
-        <v>16.03</v>
-      </c>
-      <c r="V6" s="16">
-        <v>31.42</v>
-      </c>
-      <c r="W6" s="16">
-        <v>0.13</v>
-      </c>
-      <c r="X6" s="16">
-        <v>0.37</v>
-      </c>
-      <c r="Y6" s="11">
-        <v>0.02</v>
-      </c>
-      <c r="Z6" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="16">
-        <v>42.52</v>
-      </c>
-      <c r="AB6" s="6">
-        <v>236.28243923135406</v>
-      </c>
-      <c r="AC6" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="11">
-        <v>0.8</v>
-      </c>
-      <c r="AE6" s="11">
-        <v>0.6</v>
-      </c>
-      <c r="AF6" s="11">
-        <v>2.1</v>
-      </c>
-      <c r="AG6" s="11">
-        <v>2</v>
-      </c>
-      <c r="AH6" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ6">
-        <v>4.294759470375524E-2</v>
-      </c>
-      <c r="AK6">
-        <v>34.503203015873268</v>
-      </c>
-      <c r="AL6">
-        <v>0</v>
-      </c>
-      <c r="AM6">
-        <v>0.28652249672891072</v>
-      </c>
-      <c r="AN6" s="6">
-        <v>236.28243923135406</v>
-      </c>
-      <c r="AO6">
-        <v>0</v>
-      </c>
-      <c r="AP6">
-        <v>0</v>
-      </c>
-      <c r="AQ6">
-        <v>0</v>
-      </c>
-      <c r="AR6">
-        <v>0</v>
-      </c>
-      <c r="AS6">
-        <v>0</v>
-      </c>
-      <c r="AT6">
-        <v>0.1</v>
-      </c>
-      <c r="AU6">
-        <v>0</v>
-      </c>
-      <c r="AV6">
-        <v>0</v>
-      </c>
-      <c r="AW6" s="15">
-        <v>12316.69746639742</v>
-      </c>
-      <c r="AX6">
-        <v>0</v>
-      </c>
-      <c r="AY6">
-        <v>0</v>
-      </c>
-      <c r="AZ6">
-        <v>0</v>
-      </c>
-      <c r="BA6">
-        <v>0</v>
-      </c>
-      <c r="BB6">
-        <v>0</v>
-      </c>
-      <c r="BC6">
-        <v>0</v>
-      </c>
-      <c r="BD6">
-        <v>0</v>
-      </c>
-      <c r="BE6">
-        <v>0</v>
-      </c>
-      <c r="BF6">
-        <v>0</v>
-      </c>
-      <c r="BG6">
-        <v>0</v>
-      </c>
-      <c r="BH6">
-        <v>0</v>
-      </c>
-      <c r="BI6">
-        <v>0</v>
-      </c>
-      <c r="BJ6">
-        <v>0</v>
-      </c>
-      <c r="BK6">
-        <v>0</v>
-      </c>
-      <c r="BL6">
-        <v>0</v>
-      </c>
-      <c r="BM6">
-        <v>0</v>
-      </c>
-      <c r="BN6">
-        <v>0</v>
-      </c>
-      <c r="BO6">
-        <v>0</v>
-      </c>
-      <c r="BP6">
-        <v>0</v>
-      </c>
-      <c r="BQ6">
-        <v>0</v>
-      </c>
-      <c r="BR6">
-        <v>0</v>
-      </c>
-      <c r="BS6">
-        <v>0</v>
-      </c>
-      <c r="BT6">
-        <v>0</v>
-      </c>
-      <c r="BU6">
-        <v>0</v>
-      </c>
-      <c r="BV6">
-        <v>0</v>
-      </c>
-      <c r="BW6">
-        <v>0</v>
-      </c>
-      <c r="BX6">
-        <v>0</v>
-      </c>
-      <c r="BY6">
-        <v>0</v>
-      </c>
-      <c r="BZ6">
-        <v>0</v>
-      </c>
-      <c r="CA6">
-        <v>0</v>
-      </c>
-      <c r="CB6">
-        <v>0</v>
-      </c>
-      <c r="CC6">
-        <v>0</v>
-      </c>
-      <c r="CD6">
-        <v>0</v>
-      </c>
-      <c r="CE6">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="14">
-        <v>35.305883000000001</v>
-      </c>
-      <c r="C7" s="14">
-        <v>23.547284999999999</v>
-      </c>
-      <c r="D7" s="13">
-        <v>96</v>
-      </c>
-      <c r="E7">
-        <v>1001.8</v>
-      </c>
-      <c r="F7" s="13">
-        <v>0.25</v>
-      </c>
-      <c r="G7">
-        <v>2.6</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="15">
-        <v>131000</v>
-      </c>
-      <c r="K7" s="13">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>153</v>
-      </c>
-      <c r="M7">
-        <v>11.5</v>
-      </c>
-      <c r="N7">
-        <v>2019</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" s="16">
-        <v>2.75</v>
-      </c>
-      <c r="Q7" s="17">
-        <v>2.7E-2</v>
-      </c>
-      <c r="R7" s="16">
-        <v>0.65</v>
-      </c>
-      <c r="S7" s="16">
-        <v>0.3</v>
-      </c>
-      <c r="T7" s="17">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="U7" s="16">
-        <v>18.3</v>
-      </c>
-      <c r="V7" s="16">
-        <v>31.63</v>
-      </c>
-      <c r="W7" s="16">
-        <v>0.11</v>
-      </c>
-      <c r="X7" s="16">
-        <v>0.27</v>
-      </c>
-      <c r="Y7" s="11">
-        <v>0.02</v>
-      </c>
-      <c r="Z7" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="16">
-        <v>44.8</v>
-      </c>
-      <c r="AB7" s="6">
-        <v>312.18308965047237</v>
-      </c>
-      <c r="AC7" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="AE7" s="11">
-        <v>0.3</v>
-      </c>
-      <c r="AF7" s="11">
-        <v>1.6</v>
-      </c>
-      <c r="AG7" s="11">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AH7" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="11">
-        <v>6.9318677502052992E-2</v>
-      </c>
-      <c r="AK7" s="11">
-        <v>33.053640666252633</v>
-      </c>
-      <c r="AL7" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="11">
-        <v>0.13798205156129045</v>
-      </c>
-      <c r="AN7" s="6">
-        <v>312.18308965047237</v>
-      </c>
-      <c r="AO7">
-        <v>0</v>
-      </c>
-      <c r="AP7">
-        <v>0</v>
-      </c>
-      <c r="AQ7">
-        <v>0</v>
-      </c>
-      <c r="AR7">
-        <v>0</v>
-      </c>
-      <c r="AS7">
-        <v>0</v>
-      </c>
-      <c r="AT7">
-        <v>0.1</v>
-      </c>
-      <c r="AU7">
-        <v>0</v>
-      </c>
-      <c r="AV7">
-        <v>0</v>
-      </c>
-      <c r="AW7" s="15">
-        <v>14876.39631656</v>
-      </c>
-      <c r="AX7">
-        <v>0</v>
-      </c>
-      <c r="AY7">
-        <v>0</v>
-      </c>
-      <c r="AZ7">
-        <v>0.5</v>
-      </c>
-      <c r="BA7">
-        <v>0</v>
-      </c>
-      <c r="BB7">
-        <v>0</v>
-      </c>
-      <c r="BC7">
-        <v>0</v>
-      </c>
-      <c r="BD7">
-        <v>0</v>
-      </c>
-      <c r="BE7">
-        <v>0</v>
-      </c>
-      <c r="BF7">
-        <v>0</v>
-      </c>
-      <c r="BG7">
-        <v>0</v>
-      </c>
-      <c r="BH7">
-        <v>0</v>
-      </c>
-      <c r="BI7">
-        <v>0</v>
-      </c>
-      <c r="BJ7">
-        <v>0</v>
-      </c>
-      <c r="BK7">
-        <v>0</v>
-      </c>
-      <c r="BL7">
-        <v>0</v>
-      </c>
-      <c r="BM7">
-        <v>0</v>
-      </c>
-      <c r="BN7">
-        <v>0</v>
-      </c>
-      <c r="BO7">
-        <v>0</v>
-      </c>
-      <c r="BP7">
-        <v>0</v>
-      </c>
-      <c r="BQ7">
-        <v>0</v>
-      </c>
-      <c r="BR7">
-        <v>0</v>
-      </c>
-      <c r="BS7">
-        <v>0</v>
-      </c>
-      <c r="BT7">
-        <v>0</v>
-      </c>
-      <c r="BU7">
-        <v>0</v>
-      </c>
-      <c r="BV7">
-        <v>0</v>
-      </c>
-      <c r="BW7">
-        <v>0</v>
-      </c>
-      <c r="BX7">
-        <v>0</v>
-      </c>
-      <c r="BY7">
-        <v>0</v>
-      </c>
-      <c r="BZ7">
-        <v>0</v>
-      </c>
-      <c r="CA7">
-        <v>0</v>
-      </c>
-      <c r="CB7">
-        <v>0</v>
-      </c>
-      <c r="CC7">
-        <v>23.3</v>
-      </c>
-      <c r="CD7">
-        <v>2.8</v>
-      </c>
-      <c r="CE7">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" s="14">
-        <v>35.305883000000001</v>
-      </c>
-      <c r="C8" s="14">
-        <v>23.547284999999999</v>
-      </c>
-      <c r="D8" s="13">
-        <v>106</v>
-      </c>
-      <c r="E8">
-        <v>1000.6</v>
-      </c>
-      <c r="F8" s="13">
-        <v>0.25</v>
-      </c>
-      <c r="G8">
-        <v>2.6</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8" s="15">
-        <v>93000</v>
-      </c>
-      <c r="K8" s="13">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>153</v>
-      </c>
-      <c r="M8">
-        <v>3</v>
-      </c>
-      <c r="N8">
-        <v>2019</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" s="16">
-        <v>2.91</v>
-      </c>
-      <c r="Q8" s="17">
-        <v>2.7E-2</v>
-      </c>
-      <c r="R8" s="16">
-        <v>0.69</v>
-      </c>
-      <c r="S8" s="16">
-        <v>0.31</v>
-      </c>
-      <c r="T8" s="17">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="U8" s="16">
-        <v>17.62</v>
-      </c>
-      <c r="V8" s="16">
-        <v>32.22</v>
-      </c>
-      <c r="W8" s="16">
-        <v>0.09</v>
-      </c>
-      <c r="X8" s="16">
-        <v>0.3</v>
-      </c>
-      <c r="Y8" s="11">
-        <v>0.03</v>
-      </c>
-      <c r="Z8" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="16">
-        <v>44.63</v>
-      </c>
-      <c r="AB8" s="6">
-        <v>299.79248291993486</v>
-      </c>
-      <c r="AC8" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="11">
-        <v>0.4</v>
-      </c>
-      <c r="AE8" s="11">
-        <v>0.3</v>
-      </c>
-      <c r="AF8" s="11">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="AG8" s="11">
-        <v>0.6</v>
-      </c>
-      <c r="AH8" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="11">
-        <v>5.9423650666549609E-2</v>
-      </c>
-      <c r="AK8" s="11">
-        <v>33.723839906999416</v>
-      </c>
-      <c r="AL8" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM8" s="11">
-        <v>0.14739701290110666</v>
-      </c>
-      <c r="AN8" s="6">
-        <v>299.79248291993486</v>
-      </c>
-      <c r="AO8">
-        <v>0</v>
-      </c>
-      <c r="AP8">
-        <v>0</v>
-      </c>
-      <c r="AQ8">
-        <v>0</v>
-      </c>
-      <c r="AR8">
-        <v>0</v>
-      </c>
-      <c r="AS8">
-        <v>0</v>
-      </c>
-      <c r="AT8">
-        <v>0.1</v>
-      </c>
-      <c r="AU8">
-        <v>0</v>
-      </c>
-      <c r="AV8">
-        <v>0</v>
-      </c>
-      <c r="AW8" s="15">
-        <v>13546.119984521023</v>
-      </c>
-      <c r="AX8">
-        <v>0</v>
-      </c>
-      <c r="AY8">
-        <v>0</v>
-      </c>
-      <c r="AZ8">
-        <v>0.3</v>
-      </c>
-      <c r="BA8">
-        <v>0</v>
-      </c>
-      <c r="BB8">
-        <v>0</v>
-      </c>
-      <c r="BC8">
-        <v>0</v>
-      </c>
-      <c r="BD8">
-        <v>0</v>
-      </c>
-      <c r="BE8">
-        <v>0</v>
-      </c>
-      <c r="BF8">
-        <v>0</v>
-      </c>
-      <c r="BG8">
-        <v>0</v>
-      </c>
-      <c r="BH8">
-        <v>0</v>
-      </c>
-      <c r="BI8">
-        <v>0</v>
-      </c>
-      <c r="BJ8">
-        <v>0</v>
-      </c>
-      <c r="BK8">
-        <v>0</v>
-      </c>
-      <c r="BL8">
-        <v>0</v>
-      </c>
-      <c r="BM8">
-        <v>0</v>
-      </c>
-      <c r="BN8">
-        <v>0</v>
-      </c>
-      <c r="BO8">
-        <v>0</v>
-      </c>
-      <c r="BP8">
-        <v>0</v>
-      </c>
-      <c r="BQ8">
-        <v>0</v>
-      </c>
-      <c r="BR8">
-        <v>0</v>
-      </c>
-      <c r="BS8">
-        <v>0</v>
-      </c>
-      <c r="BT8">
-        <v>0</v>
-      </c>
-      <c r="BU8">
-        <v>0</v>
-      </c>
-      <c r="BV8">
-        <v>0</v>
-      </c>
-      <c r="BW8">
-        <v>0</v>
-      </c>
-      <c r="BX8">
-        <v>0</v>
-      </c>
-      <c r="BY8">
-        <v>0</v>
-      </c>
-      <c r="BZ8">
-        <v>0</v>
-      </c>
-      <c r="CA8">
-        <v>0</v>
-      </c>
-      <c r="CB8">
-        <v>0</v>
-      </c>
-      <c r="CC8">
-        <v>14.8</v>
-      </c>
-      <c r="CD8">
-        <v>1.5</v>
-      </c>
-      <c r="CE8">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9">
-        <v>35.211838</v>
-      </c>
-      <c r="C9">
-        <v>24.155851999999999</v>
-      </c>
-      <c r="D9">
-        <v>220</v>
-      </c>
-      <c r="E9">
-        <v>987.1</v>
-      </c>
-      <c r="F9" s="13">
-        <v>0.25</v>
-      </c>
-      <c r="G9">
-        <v>2.6</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>195000</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>153</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>2019</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" s="16">
-        <v>37.64</v>
-      </c>
-      <c r="Q9" s="17">
-        <v>1.9E-2</v>
-      </c>
-      <c r="R9" s="16">
-        <v>0.45</v>
-      </c>
-      <c r="S9" s="16">
-        <v>0.32</v>
-      </c>
-      <c r="T9" s="17">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="U9" s="16">
-        <v>0.54</v>
-      </c>
-      <c r="V9" s="16">
-        <v>33.380000000000003</v>
-      </c>
-      <c r="W9" s="16">
-        <v>0.04</v>
-      </c>
-      <c r="X9" s="16">
-        <v>0.16</v>
-      </c>
-      <c r="Y9" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="Z9" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="16">
-        <v>26.9</v>
-      </c>
-      <c r="AB9" s="6">
-        <v>23.047005616063728</v>
-      </c>
-      <c r="AC9" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="11">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AE9" s="11">
-        <v>0.9</v>
-      </c>
-      <c r="AF9" s="11">
-        <v>0.7</v>
-      </c>
-      <c r="AG9" s="11">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="AH9" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ9">
-        <v>6.8641464188228099E-2</v>
-      </c>
-      <c r="AK9">
-        <v>56.451544082311329</v>
-      </c>
-      <c r="AL9">
-        <v>7.0531145476913663E-3</v>
-      </c>
-      <c r="AM9">
-        <v>5.9979551920341469E-2</v>
-      </c>
-      <c r="AN9" s="6">
-        <v>23.047005616063728</v>
-      </c>
-      <c r="AO9">
-        <v>0</v>
-      </c>
-      <c r="AP9">
-        <v>0</v>
-      </c>
-      <c r="AQ9">
-        <v>0</v>
-      </c>
-      <c r="AR9">
-        <v>0</v>
-      </c>
-      <c r="AS9">
-        <v>0</v>
-      </c>
-      <c r="AT9">
-        <v>0.1</v>
-      </c>
-      <c r="AU9">
-        <v>0</v>
-      </c>
-      <c r="AV9">
-        <v>0</v>
-      </c>
-      <c r="AW9" s="15">
-        <v>12029.597605637409</v>
-      </c>
-      <c r="AX9">
-        <v>0</v>
-      </c>
-      <c r="AY9">
-        <v>0</v>
-      </c>
-      <c r="AZ9">
-        <v>0</v>
-      </c>
-      <c r="BA9">
-        <v>0</v>
-      </c>
-      <c r="BB9">
-        <v>0</v>
-      </c>
-      <c r="BC9">
-        <v>0</v>
-      </c>
-      <c r="BD9">
-        <v>0</v>
-      </c>
-      <c r="BE9">
-        <v>0</v>
-      </c>
-      <c r="BF9">
-        <v>0</v>
-      </c>
-      <c r="BG9">
-        <v>0</v>
-      </c>
-      <c r="BH9">
-        <v>0</v>
-      </c>
-      <c r="BI9">
-        <v>0</v>
-      </c>
-      <c r="BJ9">
-        <v>0</v>
-      </c>
-      <c r="BK9">
-        <v>0</v>
-      </c>
-      <c r="BL9">
-        <v>0</v>
-      </c>
-      <c r="BM9">
-        <v>0</v>
-      </c>
-      <c r="BN9">
-        <v>0</v>
-      </c>
-      <c r="BO9">
-        <v>0</v>
-      </c>
-      <c r="BP9">
-        <v>0</v>
-      </c>
-      <c r="BQ9">
-        <v>0</v>
-      </c>
-      <c r="BR9">
-        <v>0</v>
-      </c>
-      <c r="BS9">
-        <v>0</v>
-      </c>
-      <c r="BT9">
-        <v>0</v>
-      </c>
-      <c r="BU9">
-        <v>0</v>
-      </c>
-      <c r="BV9">
-        <v>0</v>
-      </c>
-      <c r="BW9">
-        <v>0</v>
-      </c>
-      <c r="BX9">
-        <v>0</v>
-      </c>
-      <c r="BY9">
-        <v>0</v>
-      </c>
-      <c r="BZ9">
-        <v>0</v>
-      </c>
-      <c r="CA9">
-        <v>0</v>
-      </c>
-      <c r="CB9">
-        <v>0</v>
-      </c>
-      <c r="CC9">
-        <v>0</v>
-      </c>
-      <c r="CD9">
-        <v>0</v>
-      </c>
-      <c r="CE9">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10">
-        <v>35.194440999999998</v>
-      </c>
-      <c r="C10">
-        <v>24.159184</v>
-      </c>
-      <c r="D10">
-        <v>18</v>
-      </c>
-      <c r="E10">
-        <v>1011.1</v>
-      </c>
-      <c r="F10" s="13">
-        <v>0.25</v>
-      </c>
-      <c r="G10">
-        <v>2.6</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>205000</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>153</v>
-      </c>
-      <c r="M10">
-        <v>2</v>
-      </c>
-      <c r="N10">
-        <v>2019</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" s="16">
-        <v>35.299999999999997</v>
-      </c>
-      <c r="Q10" s="17">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="R10" s="16">
-        <v>0.51</v>
-      </c>
-      <c r="S10" s="16">
-        <v>0.33</v>
-      </c>
-      <c r="T10" s="17">
-        <v>1.6E-2</v>
-      </c>
-      <c r="U10" s="16">
-        <v>0.34</v>
-      </c>
-      <c r="V10" s="16">
-        <v>35.6</v>
-      </c>
-      <c r="W10" s="16">
-        <v>0.03</v>
-      </c>
-      <c r="X10" s="16">
-        <v>0.17</v>
-      </c>
-      <c r="Y10" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="Z10" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="16">
-        <v>27.91</v>
-      </c>
-      <c r="AB10" s="6">
-        <v>18.148112227743091</v>
-      </c>
-      <c r="AC10" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="11">
-        <v>1.2</v>
-      </c>
-      <c r="AE10" s="11">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AF10" s="11">
-        <v>0.6</v>
-      </c>
-      <c r="AG10" s="11">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AH10" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ10">
-        <v>4.2878016673979794E-2</v>
-      </c>
-      <c r="AK10">
-        <v>58.94361051707812</v>
-      </c>
-      <c r="AL10">
-        <v>2.5904482575460602E-4</v>
-      </c>
-      <c r="AM10">
-        <v>0</v>
-      </c>
-      <c r="AN10" s="6">
-        <v>18.148112227743091</v>
-      </c>
-      <c r="AO10">
-        <v>0</v>
-      </c>
-      <c r="AP10">
-        <v>0</v>
-      </c>
-      <c r="AQ10">
-        <v>0</v>
-      </c>
-      <c r="AR10">
-        <v>0</v>
-      </c>
-      <c r="AS10">
-        <v>0</v>
-      </c>
-      <c r="AT10">
-        <v>0.1</v>
-      </c>
-      <c r="AU10">
-        <v>0</v>
-      </c>
-      <c r="AV10">
-        <v>0</v>
-      </c>
-      <c r="AW10" s="15">
-        <v>11194.637461776489</v>
-      </c>
-      <c r="AX10">
-        <v>0</v>
-      </c>
-      <c r="AY10">
-        <v>0</v>
-      </c>
-      <c r="AZ10">
-        <v>0.5</v>
-      </c>
-      <c r="BA10">
-        <v>0</v>
-      </c>
-      <c r="BB10">
-        <v>0</v>
-      </c>
-      <c r="BC10">
-        <v>0</v>
-      </c>
-      <c r="BD10">
-        <v>0</v>
-      </c>
-      <c r="BE10">
-        <v>0</v>
-      </c>
-      <c r="BF10">
-        <v>0</v>
-      </c>
-      <c r="BG10">
-        <v>0</v>
-      </c>
-      <c r="BH10">
-        <v>0</v>
-      </c>
-      <c r="BI10">
-        <v>0</v>
-      </c>
-      <c r="BJ10">
-        <v>0</v>
-      </c>
-      <c r="BK10">
-        <v>0</v>
-      </c>
-      <c r="BL10">
-        <v>0</v>
-      </c>
-      <c r="BM10">
-        <v>0</v>
-      </c>
-      <c r="BN10">
-        <v>0</v>
-      </c>
-      <c r="BO10">
-        <v>0</v>
-      </c>
-      <c r="BP10">
-        <v>0</v>
-      </c>
-      <c r="BQ10">
-        <v>0</v>
-      </c>
-      <c r="BR10">
-        <v>0</v>
-      </c>
-      <c r="BS10">
-        <v>0</v>
-      </c>
-      <c r="BT10">
-        <v>0</v>
-      </c>
-      <c r="BU10">
-        <v>0</v>
-      </c>
-      <c r="BV10">
-        <v>0</v>
-      </c>
-      <c r="BW10">
-        <v>0</v>
-      </c>
-      <c r="BX10">
-        <v>0</v>
-      </c>
-      <c r="BY10">
-        <v>0</v>
-      </c>
-      <c r="BZ10">
-        <v>0</v>
-      </c>
-      <c r="CA10">
-        <v>0</v>
-      </c>
-      <c r="CB10">
-        <v>0</v>
-      </c>
-      <c r="CC10">
-        <v>11</v>
-      </c>
-      <c r="CD10">
-        <v>0.7</v>
-      </c>
-      <c r="CE10">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:84" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11">
-        <v>35.196648000000003</v>
-      </c>
-      <c r="C11">
-        <v>24.153645000000001</v>
-      </c>
-      <c r="D11" s="13">
-        <v>67</v>
-      </c>
-      <c r="E11" s="8">
-        <v>1005.2</v>
-      </c>
-      <c r="F11" s="13">
-        <v>0.25</v>
-      </c>
-      <c r="G11">
-        <v>2.6</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11" s="15">
-        <v>202000</v>
-      </c>
-      <c r="K11" s="10">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>153</v>
-      </c>
-      <c r="M11">
-        <v>8</v>
-      </c>
-      <c r="N11">
-        <v>2019</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" s="16">
-        <v>39.53</v>
-      </c>
-      <c r="Q11" s="17">
-        <v>0.02</v>
-      </c>
-      <c r="R11" s="16">
-        <v>0.52</v>
-      </c>
-      <c r="S11" s="16">
-        <v>0.38</v>
-      </c>
-      <c r="T11" s="17">
-        <v>1.6E-2</v>
-      </c>
-      <c r="U11" s="16">
-        <v>0.25</v>
-      </c>
-      <c r="V11" s="16">
-        <v>32.49</v>
-      </c>
-      <c r="W11" s="16">
-        <v>0.03</v>
-      </c>
-      <c r="X11" s="16">
-        <v>0.17</v>
-      </c>
-      <c r="Y11" s="11">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="Z11" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="16">
-        <v>25.96</v>
-      </c>
-      <c r="AB11" s="10">
-        <v>15.764332516289066</v>
-      </c>
-      <c r="AC11" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="11">
-        <v>1</v>
-      </c>
-      <c r="AE11" s="11">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AF11" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="AG11" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="AH11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="11">
-        <v>5.4561408837890998E-2</v>
-      </c>
-      <c r="AK11" s="11">
-        <v>56.962981326367114</v>
-      </c>
-      <c r="AL11" s="11">
-        <v>1.5298254140625629E-3</v>
-      </c>
-      <c r="AM11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AN11" s="10">
-        <v>15.764332516289066</v>
-      </c>
-      <c r="AO11">
-        <v>0</v>
-      </c>
-      <c r="AP11">
-        <v>0</v>
-      </c>
-      <c r="AQ11">
-        <v>0</v>
-      </c>
-      <c r="AR11">
-        <v>0</v>
-      </c>
-      <c r="AS11">
-        <v>0</v>
-      </c>
-      <c r="AT11">
-        <v>0.1</v>
-      </c>
-      <c r="AU11">
-        <v>0</v>
-      </c>
-      <c r="AV11">
-        <v>0</v>
-      </c>
-      <c r="AW11" s="15">
-        <v>11495.883229085061</v>
-      </c>
-      <c r="AX11">
-        <v>0</v>
-      </c>
-      <c r="AY11">
-        <v>0</v>
-      </c>
-      <c r="AZ11">
-        <v>1</v>
-      </c>
-      <c r="BA11">
-        <v>0</v>
-      </c>
-      <c r="BB11">
-        <v>0</v>
-      </c>
-      <c r="BC11">
-        <v>0</v>
-      </c>
-      <c r="BD11">
-        <v>0</v>
-      </c>
-      <c r="BE11">
-        <v>0</v>
-      </c>
-      <c r="BF11">
-        <v>0</v>
-      </c>
-      <c r="BG11">
-        <v>0</v>
-      </c>
-      <c r="BH11">
-        <v>0</v>
-      </c>
-      <c r="BI11">
-        <v>0</v>
-      </c>
-      <c r="BJ11">
-        <v>0</v>
-      </c>
-      <c r="BK11">
-        <v>0</v>
-      </c>
-      <c r="BL11">
-        <v>0</v>
-      </c>
-      <c r="BM11">
-        <v>0</v>
-      </c>
-      <c r="BN11">
-        <v>0</v>
-      </c>
-      <c r="BO11">
-        <v>0</v>
-      </c>
-      <c r="BP11">
-        <v>0</v>
-      </c>
-      <c r="BQ11">
-        <v>0</v>
-      </c>
-      <c r="BR11">
-        <v>0</v>
-      </c>
-      <c r="BS11">
-        <v>0</v>
-      </c>
-      <c r="BT11">
-        <v>0</v>
-      </c>
-      <c r="BU11">
-        <v>0</v>
-      </c>
-      <c r="BV11">
-        <v>0</v>
-      </c>
-      <c r="BW11">
-        <v>0</v>
-      </c>
-      <c r="BX11">
-        <v>0</v>
-      </c>
-      <c r="BY11">
-        <v>0</v>
-      </c>
-      <c r="BZ11">
-        <v>0</v>
-      </c>
-      <c r="CA11">
-        <v>0</v>
-      </c>
-      <c r="CB11">
-        <v>0</v>
-      </c>
-      <c r="CC11" s="10">
-        <v>55</v>
-      </c>
-      <c r="CD11" s="10">
-        <v>4</v>
-      </c>
-      <c r="CE11">
-        <v>0.6</v>
-      </c>
-      <c r="CF11"/>
-    </row>
-    <row r="12" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12">
-        <v>35.193061</v>
-      </c>
-      <c r="C12">
-        <v>24.154264999999999</v>
-      </c>
-      <c r="D12">
-        <v>24</v>
-      </c>
-      <c r="E12">
-        <v>1010.4</v>
-      </c>
-      <c r="F12" s="13">
-        <v>0.25</v>
-      </c>
-      <c r="G12">
-        <v>2.6</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12" s="15">
-        <v>298000</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>153</v>
-      </c>
-      <c r="M12">
-        <v>6</v>
-      </c>
-      <c r="N12">
-        <v>2019</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" s="16">
-        <v>61.93</v>
-      </c>
-      <c r="Q12" s="17">
-        <v>2.3E-2</v>
-      </c>
-      <c r="R12" s="16">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="S12" s="16">
-        <v>0.45</v>
-      </c>
-      <c r="T12" s="17">
-        <v>1.2E-2</v>
-      </c>
-      <c r="U12" s="16">
-        <v>0.19</v>
-      </c>
-      <c r="V12" s="16">
-        <v>21.23</v>
-      </c>
-      <c r="W12" s="16">
-        <v>0.04</v>
-      </c>
-      <c r="X12" s="16">
-        <v>0.18</v>
-      </c>
-      <c r="Y12" s="11">
-        <v>0.05</v>
-      </c>
-      <c r="Z12" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="16">
-        <v>15.96</v>
-      </c>
-      <c r="AB12" s="6">
-        <v>25.671177210215259</v>
-      </c>
-      <c r="AC12" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="11">
-        <v>1.2</v>
-      </c>
-      <c r="AE12" s="11">
-        <v>0.9</v>
-      </c>
-      <c r="AF12" s="11">
-        <v>0.6</v>
-      </c>
-      <c r="AG12" s="11">
-        <v>2.8</v>
-      </c>
-      <c r="AH12" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI12" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ12">
-        <v>6.5284521146703342E-2</v>
-      </c>
-      <c r="AK12">
-        <v>60.940674929716195</v>
-      </c>
-      <c r="AL12">
-        <v>9.6165274671153878E-3</v>
-      </c>
-      <c r="AM12">
-        <v>1.0257331062362811E-2</v>
-      </c>
-      <c r="AN12" s="6">
-        <v>25.671177210215259</v>
-      </c>
-      <c r="AO12">
-        <v>0</v>
-      </c>
-      <c r="AP12">
-        <v>0</v>
-      </c>
-      <c r="AQ12">
-        <v>0</v>
-      </c>
-      <c r="AR12">
-        <v>0</v>
-      </c>
-      <c r="AS12">
-        <v>0</v>
-      </c>
-      <c r="AT12">
-        <v>0.1</v>
-      </c>
-      <c r="AU12">
-        <v>0</v>
-      </c>
-      <c r="AV12">
-        <v>0</v>
-      </c>
-      <c r="AW12" s="15">
-        <v>18343.007955237932</v>
-      </c>
-      <c r="AX12">
-        <v>0</v>
-      </c>
-      <c r="AY12">
-        <v>0</v>
-      </c>
-      <c r="AZ12">
-        <v>0.5</v>
-      </c>
-      <c r="BA12">
-        <v>0</v>
-      </c>
-      <c r="BB12">
-        <v>0</v>
-      </c>
-      <c r="BC12">
-        <v>0</v>
-      </c>
-      <c r="BD12">
-        <v>0</v>
-      </c>
-      <c r="BE12">
-        <v>0</v>
-      </c>
-      <c r="BF12">
-        <v>0</v>
-      </c>
-      <c r="BG12">
-        <v>0</v>
-      </c>
-      <c r="BH12">
-        <v>0</v>
-      </c>
-      <c r="BI12">
-        <v>0</v>
-      </c>
-      <c r="BJ12">
-        <v>0</v>
-      </c>
-      <c r="BK12">
-        <v>0</v>
-      </c>
-      <c r="BL12">
-        <v>0</v>
-      </c>
-      <c r="BM12">
-        <v>0</v>
-      </c>
-      <c r="BN12">
-        <v>0</v>
-      </c>
-      <c r="BO12">
-        <v>0</v>
-      </c>
-      <c r="BP12">
-        <v>0</v>
-      </c>
-      <c r="BQ12">
-        <v>0</v>
-      </c>
-      <c r="BR12">
-        <v>0</v>
-      </c>
-      <c r="BS12">
-        <v>0</v>
-      </c>
-      <c r="BT12">
-        <v>0</v>
-      </c>
-      <c r="BU12">
-        <v>0</v>
-      </c>
-      <c r="BV12">
-        <v>0</v>
-      </c>
-      <c r="BW12">
-        <v>0</v>
-      </c>
-      <c r="BX12">
-        <v>0</v>
-      </c>
-      <c r="BY12">
-        <v>0</v>
-      </c>
-      <c r="BZ12">
-        <v>0</v>
-      </c>
-      <c r="CA12">
-        <v>0</v>
-      </c>
-      <c r="CB12">
-        <v>0</v>
-      </c>
-      <c r="CC12" s="10">
-        <v>14</v>
-      </c>
-      <c r="CD12" s="10">
-        <v>1.2</v>
-      </c>
-      <c r="CE12">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B13">
-        <v>35.193061</v>
-      </c>
-      <c r="C13">
-        <v>24.154264999999999</v>
-      </c>
-      <c r="D13">
-        <v>24</v>
-      </c>
-      <c r="E13">
-        <v>1010.4</v>
-      </c>
-      <c r="F13" s="13">
-        <v>0.25</v>
-      </c>
-      <c r="G13">
-        <v>2.6</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13" s="15">
-        <v>187000</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>153</v>
-      </c>
-      <c r="M13">
-        <v>5.5</v>
-      </c>
-      <c r="N13">
-        <v>2019</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" s="16">
-        <v>38.909999999999997</v>
-      </c>
-      <c r="Q13" s="17">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="R13" s="16">
-        <v>0.53</v>
-      </c>
-      <c r="S13" s="16">
-        <v>0.39</v>
-      </c>
-      <c r="T13" s="17">
-        <v>1.6E-2</v>
-      </c>
-      <c r="U13" s="16">
-        <v>0.31</v>
-      </c>
-      <c r="V13" s="16">
-        <v>33.65</v>
-      </c>
-      <c r="W13" s="16">
-        <v>0.04</v>
-      </c>
-      <c r="X13" s="16">
-        <v>0.18</v>
-      </c>
-      <c r="Y13" s="11">
-        <v>0.08</v>
-      </c>
-      <c r="Z13" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="16">
-        <v>26.28</v>
-      </c>
-      <c r="AB13">
-        <v>18.008009771022387</v>
-      </c>
-      <c r="AC13" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="11">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AE13" s="11">
-        <v>1.2</v>
-      </c>
-      <c r="AF13" s="11">
-        <v>0.6</v>
-      </c>
-      <c r="AG13" s="11">
-        <v>1.7</v>
-      </c>
-      <c r="AH13" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI13" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ13">
-        <v>6.2105004078647524E-2</v>
-      </c>
-      <c r="AK13">
-        <v>55.526071465406496</v>
-      </c>
-      <c r="AL13">
-        <v>3.3157506117971343E-3</v>
-      </c>
-      <c r="AM13">
-        <v>0</v>
-      </c>
-      <c r="AN13">
-        <v>18.008009771022387</v>
-      </c>
-      <c r="AO13">
-        <v>0</v>
-      </c>
-      <c r="AP13">
-        <v>0</v>
-      </c>
-      <c r="AQ13">
-        <v>0</v>
-      </c>
-      <c r="AR13">
-        <v>0</v>
-      </c>
-      <c r="AS13">
-        <v>0</v>
-      </c>
-      <c r="AT13">
-        <v>0.1</v>
-      </c>
-      <c r="AU13">
-        <v>0</v>
-      </c>
-      <c r="AV13">
-        <v>0</v>
-      </c>
-      <c r="AW13" s="15">
-        <v>10096.911632746682</v>
-      </c>
-      <c r="AX13">
-        <v>0</v>
-      </c>
-      <c r="AY13">
-        <v>0</v>
-      </c>
-      <c r="AZ13">
-        <v>0.5</v>
-      </c>
-      <c r="BA13">
-        <v>0</v>
-      </c>
-      <c r="BB13">
-        <v>0</v>
-      </c>
-      <c r="BC13">
-        <v>0</v>
-      </c>
-      <c r="BD13">
-        <v>0</v>
-      </c>
-      <c r="BE13">
-        <v>0</v>
-      </c>
-      <c r="BF13">
-        <v>0</v>
-      </c>
-      <c r="BG13">
-        <v>0</v>
-      </c>
-      <c r="BH13">
-        <v>0</v>
-      </c>
-      <c r="BI13">
-        <v>0</v>
-      </c>
-      <c r="BJ13">
-        <v>0</v>
-      </c>
-      <c r="BK13">
-        <v>0</v>
-      </c>
-      <c r="BL13">
-        <v>0</v>
-      </c>
-      <c r="BM13">
-        <v>0</v>
-      </c>
-      <c r="BN13">
-        <v>0</v>
-      </c>
-      <c r="BO13">
-        <v>0</v>
-      </c>
-      <c r="BP13">
-        <v>0</v>
-      </c>
-      <c r="BQ13">
-        <v>0</v>
-      </c>
-      <c r="BR13">
-        <v>0</v>
-      </c>
-      <c r="BS13">
-        <v>0</v>
-      </c>
-      <c r="BT13">
-        <v>0</v>
-      </c>
-      <c r="BU13">
-        <v>0</v>
-      </c>
-      <c r="BV13">
-        <v>0</v>
-      </c>
-      <c r="BW13">
-        <v>0</v>
-      </c>
-      <c r="BX13">
-        <v>0</v>
-      </c>
-      <c r="BY13">
-        <v>0</v>
-      </c>
-      <c r="BZ13">
-        <v>0</v>
-      </c>
-      <c r="CA13">
-        <v>0</v>
-      </c>
-      <c r="CB13">
-        <v>0</v>
-      </c>
-      <c r="CC13" s="10">
-        <v>13.5</v>
-      </c>
-      <c r="CD13" s="10">
-        <v>1.2</v>
-      </c>
-      <c r="CE13">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="P15" s="9"/>
-      <c r="Q15" s="5"/>
-      <c r="AC15" s="6"/>
-      <c r="AD15" s="6"/>
-      <c r="AE15" s="6"/>
-      <c r="AF15" s="7"/>
-      <c r="AG15" s="8"/>
-      <c r="AH15" s="7"/>
-      <c r="AI15" s="7"/>
-      <c r="AO15" s="1"/>
-      <c r="AP15" s="1"/>
-      <c r="AQ15" s="1"/>
-      <c r="AR15" s="1"/>
-      <c r="AS15" s="2"/>
-      <c r="AT15" s="2"/>
-      <c r="AU15" s="3"/>
-      <c r="AV15" s="2"/>
-      <c r="AX15" s="2"/>
-      <c r="AY15" s="1"/>
-      <c r="AZ15" s="1"/>
-      <c r="BA15" s="1"/>
-      <c r="BB15" s="1"/>
-      <c r="BC15" s="4"/>
-      <c r="BD15" s="4"/>
-      <c r="BE15" s="4"/>
-      <c r="BF15" s="4"/>
-      <c r="BG15" s="4"/>
-      <c r="BH15" s="4"/>
-      <c r="BI15" s="4"/>
-      <c r="BJ15" s="4"/>
-      <c r="BK15" s="4"/>
-      <c r="BL15" s="4"/>
-      <c r="BM15" s="4"/>
-      <c r="BN15" s="4"/>
-      <c r="BO15" s="4"/>
-      <c r="BP15" s="4"/>
-      <c r="BQ15" s="4"/>
-      <c r="BR15" s="4"/>
-      <c r="BS15" s="4"/>
-      <c r="BT15" s="4"/>
-      <c r="BU15" s="4"/>
-      <c r="BV15" s="4"/>
-    </row>
-    <row r="16" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="P16" s="9"/>
-      <c r="Q16" s="5"/>
-      <c r="AC16" s="6"/>
-      <c r="AD16" s="6"/>
-      <c r="AE16" s="6"/>
-      <c r="AF16" s="7"/>
-      <c r="AG16" s="8"/>
-      <c r="AH16" s="7"/>
-      <c r="AI16" s="7"/>
-      <c r="AO16" s="1"/>
-      <c r="AP16" s="1"/>
-      <c r="AQ16" s="1"/>
-      <c r="AR16" s="1"/>
-      <c r="AS16" s="2"/>
-      <c r="AT16" s="2"/>
-      <c r="AU16" s="3"/>
-      <c r="AV16" s="2"/>
-      <c r="AX16" s="2"/>
-      <c r="AY16" s="1"/>
-      <c r="AZ16" s="1"/>
-      <c r="BA16" s="1"/>
-      <c r="BB16" s="1"/>
-      <c r="BC16" s="4"/>
-      <c r="BD16" s="4"/>
-      <c r="BE16" s="4"/>
-      <c r="BF16" s="4"/>
-      <c r="BG16" s="4"/>
-      <c r="BH16" s="4"/>
-      <c r="BI16" s="4"/>
-      <c r="BJ16" s="4"/>
-      <c r="BK16" s="4"/>
-      <c r="BL16" s="4"/>
-      <c r="BM16" s="4"/>
-      <c r="BN16" s="4"/>
-      <c r="BO16" s="4"/>
-      <c r="BP16" s="4"/>
-      <c r="BQ16" s="4"/>
-      <c r="BR16" s="4"/>
-      <c r="BS16" s="4"/>
-      <c r="BT16" s="4"/>
-      <c r="BU16" s="4"/>
-      <c r="BV16" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CE16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BN13" sqref="BN13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3440,271 +640,271 @@
     <col min="82" max="82" width="22.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:83" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:83" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="L1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="18" t="s">
+      <c r="M1" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="O1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="N1" s="18" t="s">
+      <c r="P1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="R1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="S1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="T1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="18" t="s">
+      <c r="U1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="S1" s="18" t="s">
+      <c r="V1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="T1" s="18" t="s">
+      <c r="W1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="18" t="s">
+      <c r="X1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="V1" s="18" t="s">
+      <c r="Y1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="W1" s="18" t="s">
+      <c r="Z1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="X1" s="18" t="s">
+      <c r="AA1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="Y1" s="18" t="s">
+      <c r="AB1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="Z1" s="18" t="s">
+      <c r="AC1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="AA1" s="18" t="s">
+      <c r="AD1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="AB1" s="20" t="s">
+      <c r="AE1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="AC1" s="18" t="s">
+      <c r="AF1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="AD1" s="18" t="s">
+      <c r="AG1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="AE1" s="18" t="s">
+      <c r="AH1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="AF1" s="18" t="s">
+      <c r="AI1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="AG1" s="18" t="s">
+      <c r="AJ1" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="AH1" s="18" t="s">
+      <c r="AK1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="AI1" s="18" t="s">
+      <c r="AL1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="AJ1" s="18" t="s">
+      <c r="AM1" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="AK1" s="18" t="s">
+      <c r="AN1" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="AL1" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="AM1" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="AN1" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="AO1" s="18" t="s">
+      <c r="AO1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="18" t="s">
+      <c r="AS1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="AQ1" s="18" t="s">
+      <c r="AT1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="AR1" s="18" t="s">
+      <c r="AU1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="AS1" s="18" t="s">
+      <c r="AV1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="AT1" s="18" t="s">
+      <c r="AW1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="AU1" s="18" t="s">
+      <c r="AX1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="AV1" s="18" t="s">
+      <c r="AY1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="AW1" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="AX1" s="18" t="s">
+      <c r="AZ1" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="BA1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="AY1" s="18" t="s">
+      <c r="BB1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AZ1" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="BA1" s="18" t="s">
+      <c r="BC1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="BD1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="BB1" s="18" t="s">
+      <c r="BE1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="BC1" s="18" t="s">
+      <c r="BF1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="BD1" s="18" t="s">
+      <c r="BG1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="BE1" s="18" t="s">
+      <c r="BH1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="BF1" s="18" t="s">
+      <c r="BI1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="BG1" s="18" t="s">
+      <c r="BJ1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="BH1" s="18" t="s">
+      <c r="BK1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="BI1" s="18" t="s">
+      <c r="BL1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="BJ1" s="18" t="s">
+      <c r="BM1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="BK1" s="18" t="s">
+      <c r="BN1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="BL1" s="18" t="s">
+      <c r="BO1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="BM1" s="18" t="s">
+      <c r="BP1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="BN1" s="18" t="s">
+      <c r="BQ1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="BO1" s="18" t="s">
+      <c r="BR1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="BP1" s="18" t="s">
+      <c r="BS1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="BQ1" s="18" t="s">
+      <c r="BT1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="BR1" s="18" t="s">
+      <c r="BU1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="BS1" s="18" t="s">
+      <c r="BV1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="BT1" s="18" t="s">
+      <c r="BW1" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="BU1" s="18" t="s">
+      <c r="BX1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="BV1" s="18" t="s">
+      <c r="BY1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="BW1" s="18" t="s">
+      <c r="BZ1" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="BX1" s="18" t="s">
+      <c r="CA1" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="BY1" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="BZ1" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="CA1" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="CB1" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="CC1" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="CD1" s="18" t="s">
-        <v>76</v>
+      <c r="CB1" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="CC1" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="CD1" s="11" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" s="14">
+        <v>70</v>
+      </c>
+      <c r="B2" s="7">
         <v>35.305883000000001</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="7">
         <v>23.547284999999999</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="6">
         <v>96</v>
       </c>
       <c r="E2">
         <v>1001.8</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="6">
         <v>0.25</v>
       </c>
       <c r="G2">
@@ -3716,10 +916,10 @@
       <c r="I2">
         <v>0</v>
       </c>
-      <c r="J2" s="15">
+      <c r="J2" s="8">
         <v>131000</v>
       </c>
-      <c r="K2" s="13">
+      <c r="K2" s="6">
         <v>0</v>
       </c>
       <c r="L2">
@@ -3734,79 +934,79 @@
       <c r="O2">
         <v>0</v>
       </c>
-      <c r="P2" s="16">
+      <c r="P2" s="9">
         <v>2.75</v>
       </c>
-      <c r="Q2" s="17">
+      <c r="Q2" s="10">
         <v>2.7E-2</v>
       </c>
-      <c r="R2" s="16">
+      <c r="R2" s="9">
         <v>0.65</v>
       </c>
-      <c r="S2" s="16">
+      <c r="S2" s="9">
         <v>0.3</v>
       </c>
-      <c r="T2" s="17">
+      <c r="T2" s="10">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="U2" s="16">
+      <c r="U2" s="9">
         <v>18.3</v>
       </c>
-      <c r="V2" s="16">
+      <c r="V2" s="9">
         <v>31.63</v>
       </c>
-      <c r="W2" s="16">
+      <c r="W2" s="9">
         <v>0.11</v>
       </c>
-      <c r="X2" s="16">
+      <c r="X2" s="9">
         <v>0.27</v>
       </c>
-      <c r="Y2" s="11">
+      <c r="Y2" s="4">
         <v>0.02</v>
       </c>
-      <c r="Z2" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="16">
+      <c r="Z2" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="9">
         <v>44.8</v>
       </c>
-      <c r="AB2" s="6">
+      <c r="AB2" s="1">
         <v>312.18308965047237</v>
       </c>
-      <c r="AC2" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="11">
+      <c r="AC2" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="4">
         <v>0.5</v>
       </c>
-      <c r="AE2" s="11">
+      <c r="AE2" s="4">
         <v>0.3</v>
       </c>
-      <c r="AF2" s="11">
+      <c r="AF2" s="4">
         <v>1.6</v>
       </c>
-      <c r="AG2" s="11">
+      <c r="AG2" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AH2" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI2" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="11">
+      <c r="AH2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="4">
         <v>6.9318677502052992E-2</v>
       </c>
-      <c r="AK2" s="11">
+      <c r="AK2" s="4">
         <v>33.053640666252633</v>
       </c>
-      <c r="AL2" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM2" s="11">
+      <c r="AL2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM2" s="4">
         <v>0.13798205156129045</v>
       </c>
-      <c r="AN2" s="6">
+      <c r="AN2" s="1">
         <v>312.18308965047237</v>
       </c>
       <c r="AO2">
@@ -3833,7 +1033,7 @@
       <c r="AV2">
         <v>0</v>
       </c>
-      <c r="AW2" s="15">
+      <c r="AW2" s="8">
         <v>14876.39631656</v>
       </c>
       <c r="AX2">
@@ -3930,29 +1130,29 @@
         <v>0</v>
       </c>
       <c r="CC2">
-        <v>23.3</v>
+        <v>23.74</v>
       </c>
       <c r="CD2">
-        <v>2.8</v>
+        <v>2.73</v>
       </c>
     </row>
     <row r="3" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" s="14">
+        <v>71</v>
+      </c>
+      <c r="B3" s="7">
         <v>35.305883000000001</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="7">
         <v>23.547284999999999</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="6">
         <v>106</v>
       </c>
       <c r="E3">
         <v>1000.6</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="6">
         <v>0.25</v>
       </c>
       <c r="G3">
@@ -3964,10 +1164,10 @@
       <c r="I3">
         <v>0</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J3" s="8">
         <v>93000</v>
       </c>
-      <c r="K3" s="13">
+      <c r="K3" s="6">
         <v>0</v>
       </c>
       <c r="L3">
@@ -3982,79 +1182,79 @@
       <c r="O3">
         <v>0</v>
       </c>
-      <c r="P3" s="16">
+      <c r="P3" s="9">
         <v>2.91</v>
       </c>
-      <c r="Q3" s="17">
+      <c r="Q3" s="10">
         <v>2.7E-2</v>
       </c>
-      <c r="R3" s="16">
+      <c r="R3" s="9">
         <v>0.69</v>
       </c>
-      <c r="S3" s="16">
+      <c r="S3" s="9">
         <v>0.31</v>
       </c>
-      <c r="T3" s="17">
+      <c r="T3" s="10">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="U3" s="16">
+      <c r="U3" s="9">
         <v>17.62</v>
       </c>
-      <c r="V3" s="16">
+      <c r="V3" s="9">
         <v>32.22</v>
       </c>
-      <c r="W3" s="16">
+      <c r="W3" s="9">
         <v>0.09</v>
       </c>
-      <c r="X3" s="16">
+      <c r="X3" s="9">
         <v>0.3</v>
       </c>
-      <c r="Y3" s="11">
+      <c r="Y3" s="4">
         <v>0.03</v>
       </c>
-      <c r="Z3" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="16">
+      <c r="Z3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="9">
         <v>44.63</v>
       </c>
-      <c r="AB3" s="6">
+      <c r="AB3" s="1">
         <v>299.79248291993486</v>
       </c>
-      <c r="AC3" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="11">
+      <c r="AC3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="4">
         <v>0.4</v>
       </c>
-      <c r="AE3" s="11">
+      <c r="AE3" s="4">
         <v>0.3</v>
       </c>
-      <c r="AF3" s="11">
+      <c r="AF3" s="4">
         <v>2.2000000000000002</v>
       </c>
-      <c r="AG3" s="11">
+      <c r="AG3" s="4">
         <v>0.6</v>
       </c>
-      <c r="AH3" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="11">
+      <c r="AH3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="4">
         <v>5.9423650666549609E-2</v>
       </c>
-      <c r="AK3" s="11">
+      <c r="AK3" s="4">
         <v>33.723839906999416</v>
       </c>
-      <c r="AL3" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM3" s="11">
+      <c r="AL3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="4">
         <v>0.14739701290110666</v>
       </c>
-      <c r="AN3" s="6">
+      <c r="AN3" s="1">
         <v>299.79248291993486</v>
       </c>
       <c r="AO3">
@@ -4081,7 +1281,7 @@
       <c r="AV3">
         <v>0</v>
       </c>
-      <c r="AW3" s="15">
+      <c r="AW3" s="8">
         <v>13546.119984521023</v>
       </c>
       <c r="AX3">
@@ -4178,15 +1378,15 @@
         <v>0</v>
       </c>
       <c r="CC3">
-        <v>14.8</v>
-      </c>
-      <c r="CD3">
-        <v>1.5</v>
+        <v>14.75</v>
+      </c>
+      <c r="CD3" s="1">
+        <v>1.53</v>
       </c>
     </row>
-    <row r="4" spans="1:83" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:83" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B4">
         <v>35.194440999999998</v>
@@ -4200,7 +1400,7 @@
       <c r="E4">
         <v>1011.1</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="6">
         <v>0.25</v>
       </c>
       <c r="G4">
@@ -4230,64 +1430,64 @@
       <c r="O4">
         <v>0</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="9">
         <v>35.299999999999997</v>
       </c>
-      <c r="Q4" s="17">
+      <c r="Q4" s="10">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="R4" s="16">
+      <c r="R4" s="9">
         <v>0.51</v>
       </c>
-      <c r="S4" s="16">
+      <c r="S4" s="9">
         <v>0.33</v>
       </c>
-      <c r="T4" s="17">
+      <c r="T4" s="10">
         <v>1.6E-2</v>
       </c>
-      <c r="U4" s="16">
+      <c r="U4" s="9">
         <v>0.34</v>
       </c>
-      <c r="V4" s="16">
+      <c r="V4" s="9">
         <v>35.6</v>
       </c>
-      <c r="W4" s="16">
+      <c r="W4" s="9">
         <v>0.03</v>
       </c>
-      <c r="X4" s="16">
+      <c r="X4" s="9">
         <v>0.17</v>
       </c>
-      <c r="Y4" s="11">
+      <c r="Y4" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Z4" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="16">
+      <c r="Z4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="9">
         <v>27.91</v>
       </c>
-      <c r="AB4" s="6">
+      <c r="AB4" s="1">
         <v>18.148112227743091</v>
       </c>
-      <c r="AC4" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="11">
+      <c r="AC4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="4">
         <v>1.2</v>
       </c>
-      <c r="AE4" s="11">
+      <c r="AE4" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AF4" s="11">
+      <c r="AF4" s="4">
         <v>0.6</v>
       </c>
-      <c r="AG4" s="11">
+      <c r="AG4" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AH4" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="11">
+      <c r="AH4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="4">
         <v>0</v>
       </c>
       <c r="AJ4">
@@ -4302,7 +1502,7 @@
       <c r="AM4">
         <v>0</v>
       </c>
-      <c r="AN4" s="6">
+      <c r="AN4" s="1">
         <v>18.148112227743091</v>
       </c>
       <c r="AO4">
@@ -4329,7 +1529,7 @@
       <c r="AV4">
         <v>0</v>
       </c>
-      <c r="AW4" s="15">
+      <c r="AW4" s="8">
         <v>11194.637461776489</v>
       </c>
       <c r="AX4">
@@ -4435,7 +1635,7 @@
     </row>
     <row r="5" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B5">
         <v>35.196648000000003</v>
@@ -4443,13 +1643,13 @@
       <c r="C5">
         <v>24.153645000000001</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="6">
         <v>67</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="2">
         <v>1005.2</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="6">
         <v>0.25</v>
       </c>
       <c r="G5">
@@ -4461,10 +1661,10 @@
       <c r="I5">
         <v>0</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="8">
         <v>202000</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="3">
         <v>0</v>
       </c>
       <c r="L5">
@@ -4479,79 +1679,79 @@
       <c r="O5">
         <v>0</v>
       </c>
-      <c r="P5" s="16">
+      <c r="P5" s="9">
         <v>39.53</v>
       </c>
-      <c r="Q5" s="17">
+      <c r="Q5" s="10">
         <v>0.02</v>
       </c>
-      <c r="R5" s="16">
+      <c r="R5" s="9">
         <v>0.52</v>
       </c>
-      <c r="S5" s="16">
+      <c r="S5" s="9">
         <v>0.38</v>
       </c>
-      <c r="T5" s="17">
+      <c r="T5" s="10">
         <v>1.6E-2</v>
       </c>
-      <c r="U5" s="16">
+      <c r="U5" s="9">
         <v>0.25</v>
       </c>
-      <c r="V5" s="16">
+      <c r="V5" s="9">
         <v>32.49</v>
       </c>
-      <c r="W5" s="16">
+      <c r="W5" s="9">
         <v>0.03</v>
       </c>
-      <c r="X5" s="16">
+      <c r="X5" s="9">
         <v>0.17</v>
       </c>
-      <c r="Y5" s="11">
+      <c r="Y5" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Z5" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="16">
+      <c r="Z5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="9">
         <v>25.96</v>
       </c>
-      <c r="AB5" s="10">
+      <c r="AB5" s="3">
         <v>15.764332516289066</v>
       </c>
-      <c r="AC5" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="11">
+      <c r="AC5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="4">
         <v>1</v>
       </c>
-      <c r="AE5" s="11">
+      <c r="AE5" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AF5" s="11">
+      <c r="AF5" s="4">
         <v>0.5</v>
       </c>
-      <c r="AG5" s="11">
+      <c r="AG5" s="4">
         <v>0.5</v>
       </c>
-      <c r="AH5" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="11">
+      <c r="AH5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="4">
         <v>5.4561408837890998E-2</v>
       </c>
-      <c r="AK5" s="11">
+      <c r="AK5" s="4">
         <v>56.962981326367114</v>
       </c>
-      <c r="AL5" s="11">
+      <c r="AL5" s="4">
         <v>1.5298254140625629E-3</v>
       </c>
-      <c r="AM5" s="11">
-        <v>0</v>
-      </c>
-      <c r="AN5" s="10">
+      <c r="AM5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="3">
         <v>15.764332516289066</v>
       </c>
       <c r="AO5">
@@ -4578,7 +1778,7 @@
       <c r="AV5">
         <v>0</v>
       </c>
-      <c r="AW5" s="15">
+      <c r="AW5" s="8">
         <v>11495.883229085061</v>
       </c>
       <c r="AX5">
@@ -4674,16 +1874,16 @@
       <c r="CB5">
         <v>0</v>
       </c>
-      <c r="CC5" s="10">
+      <c r="CC5" s="3">
         <v>55</v>
       </c>
-      <c r="CD5" s="10">
+      <c r="CD5" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B6">
         <v>35.193061</v>
@@ -4697,7 +1897,7 @@
       <c r="E6">
         <v>1010.4</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="6">
         <v>0.25</v>
       </c>
       <c r="G6">
@@ -4709,7 +1909,7 @@
       <c r="I6">
         <v>0</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="8">
         <v>298000</v>
       </c>
       <c r="K6">
@@ -4727,64 +1927,64 @@
       <c r="O6">
         <v>0</v>
       </c>
-      <c r="P6" s="16">
+      <c r="P6" s="9">
         <v>61.93</v>
       </c>
-      <c r="Q6" s="17">
+      <c r="Q6" s="10">
         <v>2.3E-2</v>
       </c>
-      <c r="R6" s="16">
+      <c r="R6" s="9">
         <v>0.57999999999999996</v>
       </c>
-      <c r="S6" s="16">
+      <c r="S6" s="9">
         <v>0.45</v>
       </c>
-      <c r="T6" s="17">
+      <c r="T6" s="10">
         <v>1.2E-2</v>
       </c>
-      <c r="U6" s="16">
+      <c r="U6" s="9">
         <v>0.19</v>
       </c>
-      <c r="V6" s="16">
+      <c r="V6" s="9">
         <v>21.23</v>
       </c>
-      <c r="W6" s="16">
+      <c r="W6" s="9">
         <v>0.04</v>
       </c>
-      <c r="X6" s="16">
+      <c r="X6" s="9">
         <v>0.18</v>
       </c>
-      <c r="Y6" s="11">
+      <c r="Y6" s="4">
         <v>0.05</v>
       </c>
-      <c r="Z6" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="16">
+      <c r="Z6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="9">
         <v>15.96</v>
       </c>
-      <c r="AB6" s="6">
+      <c r="AB6" s="1">
         <v>25.671177210215259</v>
       </c>
-      <c r="AC6" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="11">
+      <c r="AC6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="4">
         <v>1.2</v>
       </c>
-      <c r="AE6" s="11">
+      <c r="AE6" s="4">
         <v>0.9</v>
       </c>
-      <c r="AF6" s="11">
+      <c r="AF6" s="4">
         <v>0.6</v>
       </c>
-      <c r="AG6" s="11">
+      <c r="AG6" s="4">
         <v>2.8</v>
       </c>
-      <c r="AH6" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="11">
+      <c r="AH6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="4">
         <v>0</v>
       </c>
       <c r="AJ6">
@@ -4799,7 +1999,7 @@
       <c r="AM6">
         <v>1.0257331062362811E-2</v>
       </c>
-      <c r="AN6" s="6">
+      <c r="AN6" s="1">
         <v>25.671177210215259</v>
       </c>
       <c r="AO6">
@@ -4826,7 +2026,7 @@
       <c r="AV6">
         <v>0</v>
       </c>
-      <c r="AW6" s="15">
+      <c r="AW6" s="8">
         <v>18343.007955237932</v>
       </c>
       <c r="AX6">
@@ -4922,16 +2122,16 @@
       <c r="CB6">
         <v>0</v>
       </c>
-      <c r="CC6" s="10">
+      <c r="CC6" s="3">
         <v>14</v>
       </c>
-      <c r="CD6" s="10">
+      <c r="CD6" s="3">
         <v>1.2</v>
       </c>
     </row>
     <row r="7" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B7">
         <v>35.193061</v>
@@ -4945,7 +2145,7 @@
       <c r="E7">
         <v>1010.4</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="6">
         <v>0.25</v>
       </c>
       <c r="G7">
@@ -4957,7 +2157,7 @@
       <c r="I7">
         <v>0</v>
       </c>
-      <c r="J7" s="15">
+      <c r="J7" s="8">
         <v>187000</v>
       </c>
       <c r="K7">
@@ -4975,64 +2175,64 @@
       <c r="O7">
         <v>0</v>
       </c>
-      <c r="P7" s="16">
+      <c r="P7" s="9">
         <v>38.909999999999997</v>
       </c>
-      <c r="Q7" s="17">
+      <c r="Q7" s="10">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="R7" s="16">
+      <c r="R7" s="9">
         <v>0.53</v>
       </c>
-      <c r="S7" s="16">
+      <c r="S7" s="9">
         <v>0.39</v>
       </c>
-      <c r="T7" s="17">
+      <c r="T7" s="10">
         <v>1.6E-2</v>
       </c>
-      <c r="U7" s="16">
+      <c r="U7" s="9">
         <v>0.31</v>
       </c>
-      <c r="V7" s="16">
+      <c r="V7" s="9">
         <v>33.65</v>
       </c>
-      <c r="W7" s="16">
+      <c r="W7" s="9">
         <v>0.04</v>
       </c>
-      <c r="X7" s="16">
+      <c r="X7" s="9">
         <v>0.18</v>
       </c>
-      <c r="Y7" s="11">
+      <c r="Y7" s="4">
         <v>0.08</v>
       </c>
-      <c r="Z7" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="16">
+      <c r="Z7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="9">
         <v>26.28</v>
       </c>
       <c r="AB7">
         <v>18.008009771022387</v>
       </c>
-      <c r="AC7" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="11">
+      <c r="AC7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AE7" s="11">
+      <c r="AE7" s="4">
         <v>1.2</v>
       </c>
-      <c r="AF7" s="11">
+      <c r="AF7" s="4">
         <v>0.6</v>
       </c>
-      <c r="AG7" s="11">
+      <c r="AG7" s="4">
         <v>1.7</v>
       </c>
-      <c r="AH7" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="11">
+      <c r="AH7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="4">
         <v>0</v>
       </c>
       <c r="AJ7">
@@ -5074,7 +2274,7 @@
       <c r="AV7">
         <v>0</v>
       </c>
-      <c r="AW7" s="15">
+      <c r="AW7" s="8">
         <v>10096.911632746682</v>
       </c>
       <c r="AX7">
@@ -5170,15 +2370,15 @@
       <c r="CB7">
         <v>0</v>
       </c>
-      <c r="CC7" s="10">
+      <c r="CC7" s="3">
         <v>13.5</v>
       </c>
-      <c r="CD7" s="10">
+      <c r="CD7" s="3">
         <v>1.2</v>
       </c>
     </row>
     <row r="16" spans="1:83" x14ac:dyDescent="0.25">
-      <c r="AB16" s="6"/>
+      <c r="AB16" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5186,12 +2386,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:CB16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5203,487 +2403,487 @@
   <sheetData>
     <row r="1" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>20</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>21</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>22</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>23</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>24</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>25</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>26</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AB1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AC1" t="s">
         <v>28</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AD1" t="s">
         <v>29</v>
       </c>
-      <c r="AB1" s="12" t="s">
+      <c r="AE1" t="s">
         <v>30</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AF1" t="s">
         <v>31</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AG1" t="s">
         <v>32</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AH1" t="s">
         <v>33</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AI1" t="s">
         <v>34</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AJ1" t="s">
         <v>35</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AK1" t="s">
         <v>36</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AL1" t="s">
         <v>37</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AM1" t="s">
         <v>38</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AN1" t="s">
         <v>39</v>
       </c>
-      <c r="AL1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>42</v>
-      </c>
       <c r="AO1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR1" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AS1" t="s">
         <v>5</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AT1" t="s">
         <v>6</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AU1" t="s">
         <v>7</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AV1" t="s">
         <v>8</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AW1" t="s">
         <v>9</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AX1" t="s">
         <v>10</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AY1" t="s">
         <v>11</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AZ1" t="s">
         <v>12</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="BA1" t="s">
         <v>13</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BB1" t="s">
         <v>14</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BC1" t="s">
         <v>15</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BD1" t="s">
         <v>16</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BE1" t="s">
         <v>17</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BF1" t="s">
         <v>18</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BG1" t="s">
         <v>19</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BH1" t="s">
         <v>20</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BI1" t="s">
         <v>21</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BJ1" t="s">
         <v>22</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BK1" t="s">
         <v>23</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BL1" t="s">
         <v>24</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BM1" t="s">
         <v>25</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BN1" t="s">
         <v>26</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BO1" t="s">
         <v>27</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BP1" t="s">
         <v>28</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BQ1" t="s">
         <v>29</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BR1" t="s">
         <v>30</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BS1" t="s">
         <v>31</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BT1" t="s">
         <v>32</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BU1" t="s">
         <v>33</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BV1" t="s">
         <v>34</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BW1" t="s">
         <v>35</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BX1" t="s">
         <v>36</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BY1" t="s">
         <v>37</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BZ1" t="s">
         <v>38</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="CA1" t="s">
         <v>39</v>
       </c>
-      <c r="BY1" t="s">
-        <v>40</v>
-      </c>
-      <c r="BZ1" t="s">
-        <v>41</v>
-      </c>
-      <c r="CA1" t="s">
-        <v>42</v>
-      </c>
-      <c r="CB1" s="12"/>
+      <c r="CB1" s="5"/>
     </row>
     <row r="2" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" t="s">
         <v>43</v>
       </c>
-      <c r="B2" t="s">
+      <c r="F2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C2" t="s">
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>53</v>
+      </c>
+      <c r="R2" t="s">
+        <v>53</v>
+      </c>
+      <c r="S2" t="s">
+        <v>53</v>
+      </c>
+      <c r="T2" t="s">
+        <v>53</v>
+      </c>
+      <c r="U2" t="s">
+        <v>53</v>
+      </c>
+      <c r="V2" t="s">
+        <v>53</v>
+      </c>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS2" t="s">
         <v>44</v>
       </c>
-      <c r="D2" t="s">
+      <c r="AT2" t="s">
         <v>45</v>
       </c>
-      <c r="E2" t="s">
+      <c r="AU2" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="AV2" t="s">
         <v>47</v>
       </c>
-      <c r="G2" t="s">
+      <c r="AW2" t="s">
         <v>48</v>
       </c>
-      <c r="H2" t="s">
+      <c r="AX2" t="s">
         <v>49</v>
       </c>
-      <c r="I2" t="s">
+      <c r="AY2" t="s">
         <v>50</v>
       </c>
-      <c r="J2" t="s">
+      <c r="AZ2" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA2" t="s">
         <v>51</v>
       </c>
-      <c r="K2" t="s">
+      <c r="BB2" t="s">
         <v>52</v>
       </c>
-      <c r="L2" t="s">
+      <c r="BC2" t="s">
         <v>53</v>
       </c>
-      <c r="M2" t="s">
+      <c r="BD2" t="s">
         <v>53</v>
       </c>
-      <c r="N2" t="s">
+      <c r="BE2" t="s">
+        <v>53</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>53</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>53</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>53</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>53</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>53</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>53</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>53</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>53</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>53</v>
+      </c>
+      <c r="BO2" t="s">
         <v>54</v>
       </c>
-      <c r="O2" t="s">
+      <c r="BP2" t="s">
+        <v>54</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>54</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>54</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>54</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>54</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>54</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>54</v>
+      </c>
+      <c r="BW2" t="s">
         <v>55</v>
       </c>
-      <c r="P2" t="s">
+      <c r="BX2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>55</v>
+      </c>
+      <c r="CA2" t="s">
         <v>56</v>
       </c>
-      <c r="Q2" t="s">
-        <v>56</v>
-      </c>
-      <c r="R2" t="s">
-        <v>56</v>
-      </c>
-      <c r="S2" t="s">
-        <v>56</v>
-      </c>
-      <c r="T2" t="s">
-        <v>56</v>
-      </c>
-      <c r="U2" t="s">
-        <v>56</v>
-      </c>
-      <c r="V2" t="s">
-        <v>56</v>
-      </c>
-      <c r="W2" t="s">
-        <v>56</v>
-      </c>
-      <c r="X2" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB2" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>53</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>54</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>55</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>56</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>56</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>56</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>56</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>56</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>56</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>56</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>56</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>56</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>56</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>56</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>56</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>57</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>57</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>57</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>57</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>57</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>57</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>57</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>57</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>58</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>58</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>58</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>58</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>59</v>
-      </c>
-      <c r="CB2" s="12"/>
+      <c r="CB2" s="5"/>
     </row>
     <row r="3" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B3">
         <v>35.306624999999997</v>
@@ -5697,7 +2897,7 @@
       <c r="E3">
         <v>992.5</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="6">
         <v>0.25</v>
       </c>
       <c r="G3">
@@ -5727,64 +2927,64 @@
       <c r="O3">
         <v>0</v>
       </c>
-      <c r="P3" s="16">
+      <c r="P3" s="9">
         <v>6.07</v>
       </c>
-      <c r="Q3" s="17">
+      <c r="Q3" s="10">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="R3" s="16">
+      <c r="R3" s="9">
         <v>1.17</v>
       </c>
-      <c r="S3" s="16">
+      <c r="S3" s="9">
         <v>0.89</v>
       </c>
-      <c r="T3" s="17">
+      <c r="T3" s="10">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="U3" s="16">
+      <c r="U3" s="9">
         <v>16.03</v>
       </c>
-      <c r="V3" s="16">
+      <c r="V3" s="9">
         <v>31.42</v>
       </c>
-      <c r="W3" s="16">
+      <c r="W3" s="9">
         <v>0.13</v>
       </c>
-      <c r="X3" s="16">
+      <c r="X3" s="9">
         <v>0.37</v>
       </c>
-      <c r="Y3" s="11">
+      <c r="Y3" s="4">
         <v>0.02</v>
       </c>
-      <c r="Z3" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="16">
+      <c r="Z3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="9">
         <v>42.52</v>
       </c>
-      <c r="AB3" s="6">
+      <c r="AB3" s="1">
         <v>236.28243923135406</v>
       </c>
-      <c r="AC3" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="11">
+      <c r="AC3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="4">
         <v>0.8</v>
       </c>
-      <c r="AE3" s="11">
+      <c r="AE3" s="4">
         <v>0.6</v>
       </c>
-      <c r="AF3" s="11">
+      <c r="AF3" s="4">
         <v>2.1</v>
       </c>
-      <c r="AG3" s="11">
+      <c r="AG3" s="4">
         <v>2</v>
       </c>
-      <c r="AH3" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="11">
+      <c r="AH3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="4">
         <v>0</v>
       </c>
       <c r="AJ3">
@@ -5799,7 +2999,7 @@
       <c r="AM3">
         <v>0.28652249672891072</v>
       </c>
-      <c r="AN3" s="6">
+      <c r="AN3" s="1">
         <v>236.28243923135406</v>
       </c>
       <c r="AO3">
@@ -5826,7 +3026,7 @@
       <c r="AV3">
         <v>0</v>
       </c>
-      <c r="AW3" s="15">
+      <c r="AW3" s="8">
         <v>12316.69746639742</v>
       </c>
       <c r="AX3">
@@ -5925,21 +3125,21 @@
     </row>
     <row r="4" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="14">
+        <v>58</v>
+      </c>
+      <c r="B4" s="7">
         <v>35.305883000000001</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="7">
         <v>23.547284999999999</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="6">
         <v>96</v>
       </c>
       <c r="E4">
         <v>1001.8</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="6">
         <v>0.25</v>
       </c>
       <c r="G4">
@@ -5951,10 +3151,10 @@
       <c r="I4">
         <v>0</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="8">
         <v>131000</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="6">
         <v>0</v>
       </c>
       <c r="L4">
@@ -5969,79 +3169,79 @@
       <c r="O4">
         <v>0</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="9">
         <v>2.75</v>
       </c>
-      <c r="Q4" s="17">
+      <c r="Q4" s="10">
         <v>2.7E-2</v>
       </c>
-      <c r="R4" s="16">
+      <c r="R4" s="9">
         <v>0.65</v>
       </c>
-      <c r="S4" s="16">
+      <c r="S4" s="9">
         <v>0.3</v>
       </c>
-      <c r="T4" s="17">
+      <c r="T4" s="10">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="U4" s="16">
+      <c r="U4" s="9">
         <v>18.3</v>
       </c>
-      <c r="V4" s="16">
+      <c r="V4" s="9">
         <v>31.63</v>
       </c>
-      <c r="W4" s="16">
+      <c r="W4" s="9">
         <v>0.11</v>
       </c>
-      <c r="X4" s="16">
+      <c r="X4" s="9">
         <v>0.27</v>
       </c>
-      <c r="Y4" s="11">
+      <c r="Y4" s="4">
         <v>0.02</v>
       </c>
-      <c r="Z4" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="16">
+      <c r="Z4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="9">
         <v>44.8</v>
       </c>
-      <c r="AB4" s="6">
+      <c r="AB4" s="1">
         <v>312.18308965047237</v>
       </c>
-      <c r="AC4" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="11">
+      <c r="AC4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="4">
         <v>0.5</v>
       </c>
-      <c r="AE4" s="11">
+      <c r="AE4" s="4">
         <v>0.3</v>
       </c>
-      <c r="AF4" s="11">
+      <c r="AF4" s="4">
         <v>1.6</v>
       </c>
-      <c r="AG4" s="11">
+      <c r="AG4" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AH4" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="11">
+      <c r="AH4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="4">
         <v>6.9318677502052992E-2</v>
       </c>
-      <c r="AK4" s="11">
+      <c r="AK4" s="4">
         <v>33.053640666252633</v>
       </c>
-      <c r="AL4" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM4" s="11">
+      <c r="AL4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="4">
         <v>0.13798205156129045</v>
       </c>
-      <c r="AN4" s="6">
+      <c r="AN4" s="1">
         <v>312.18308965047237</v>
       </c>
       <c r="AO4">
@@ -6068,7 +3268,7 @@
       <c r="AV4">
         <v>0</v>
       </c>
-      <c r="AW4" s="15">
+      <c r="AW4" s="8">
         <v>14876.39631656</v>
       </c>
       <c r="AX4">
@@ -6165,23 +3365,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:80" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:80" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="14">
+        <v>59</v>
+      </c>
+      <c r="B5" s="7">
         <v>35.305883000000001</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="7">
         <v>23.547284999999999</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="6">
         <v>106</v>
       </c>
       <c r="E5">
         <v>1000.6</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="6">
         <v>0.25</v>
       </c>
       <c r="G5">
@@ -6193,10 +3393,10 @@
       <c r="I5">
         <v>0</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="8">
         <v>93000</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="6">
         <v>0</v>
       </c>
       <c r="L5">
@@ -6211,79 +3411,79 @@
       <c r="O5">
         <v>0</v>
       </c>
-      <c r="P5" s="16">
+      <c r="P5" s="9">
         <v>2.91</v>
       </c>
-      <c r="Q5" s="17">
+      <c r="Q5" s="10">
         <v>2.7E-2</v>
       </c>
-      <c r="R5" s="16">
+      <c r="R5" s="9">
         <v>0.69</v>
       </c>
-      <c r="S5" s="16">
+      <c r="S5" s="9">
         <v>0.31</v>
       </c>
-      <c r="T5" s="17">
+      <c r="T5" s="10">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="U5" s="16">
+      <c r="U5" s="9">
         <v>17.62</v>
       </c>
-      <c r="V5" s="16">
+      <c r="V5" s="9">
         <v>32.22</v>
       </c>
-      <c r="W5" s="16">
+      <c r="W5" s="9">
         <v>0.09</v>
       </c>
-      <c r="X5" s="16">
+      <c r="X5" s="9">
         <v>0.3</v>
       </c>
-      <c r="Y5" s="11">
+      <c r="Y5" s="4">
         <v>0.03</v>
       </c>
-      <c r="Z5" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="16">
+      <c r="Z5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="9">
         <v>44.63</v>
       </c>
-      <c r="AB5" s="6">
+      <c r="AB5" s="1">
         <v>299.79248291993486</v>
       </c>
-      <c r="AC5" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="11">
+      <c r="AC5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="4">
         <v>0.4</v>
       </c>
-      <c r="AE5" s="11">
+      <c r="AE5" s="4">
         <v>0.3</v>
       </c>
-      <c r="AF5" s="11">
+      <c r="AF5" s="4">
         <v>2.2000000000000002</v>
       </c>
-      <c r="AG5" s="11">
+      <c r="AG5" s="4">
         <v>0.6</v>
       </c>
-      <c r="AH5" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="11">
+      <c r="AH5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="4">
         <v>5.9423650666549609E-2</v>
       </c>
-      <c r="AK5" s="11">
+      <c r="AK5" s="4">
         <v>33.723839906999416</v>
       </c>
-      <c r="AL5" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="11">
+      <c r="AL5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="4">
         <v>0.14739701290110666</v>
       </c>
-      <c r="AN5" s="6">
+      <c r="AN5" s="1">
         <v>299.79248291993486</v>
       </c>
       <c r="AO5">
@@ -6310,7 +3510,7 @@
       <c r="AV5">
         <v>0</v>
       </c>
-      <c r="AW5" s="15">
+      <c r="AW5" s="8">
         <v>13546.119984521023</v>
       </c>
       <c r="AX5">
@@ -6409,7 +3609,7 @@
     </row>
     <row r="6" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B6">
         <v>35.211838</v>
@@ -6423,7 +3623,7 @@
       <c r="E6">
         <v>987.1</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="6">
         <v>0.25</v>
       </c>
       <c r="G6">
@@ -6453,64 +3653,64 @@
       <c r="O6">
         <v>0</v>
       </c>
-      <c r="P6" s="16">
+      <c r="P6" s="9">
         <v>37.64</v>
       </c>
-      <c r="Q6" s="17">
+      <c r="Q6" s="10">
         <v>1.9E-2</v>
       </c>
-      <c r="R6" s="16">
+      <c r="R6" s="9">
         <v>0.45</v>
       </c>
-      <c r="S6" s="16">
+      <c r="S6" s="9">
         <v>0.32</v>
       </c>
-      <c r="T6" s="17">
+      <c r="T6" s="10">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="U6" s="16">
+      <c r="U6" s="9">
         <v>0.54</v>
       </c>
-      <c r="V6" s="16">
+      <c r="V6" s="9">
         <v>33.380000000000003</v>
       </c>
-      <c r="W6" s="16">
+      <c r="W6" s="9">
         <v>0.04</v>
       </c>
-      <c r="X6" s="16">
+      <c r="X6" s="9">
         <v>0.16</v>
       </c>
-      <c r="Y6" s="11">
+      <c r="Y6" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Z6" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="16">
+      <c r="Z6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="9">
         <v>26.9</v>
       </c>
-      <c r="AB6" s="6">
+      <c r="AB6" s="1">
         <v>23.047005616063728</v>
       </c>
-      <c r="AC6" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="11">
+      <c r="AC6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AE6" s="11">
+      <c r="AE6" s="4">
         <v>0.9</v>
       </c>
-      <c r="AF6" s="11">
+      <c r="AF6" s="4">
         <v>0.7</v>
       </c>
-      <c r="AG6" s="11">
+      <c r="AG6" s="4">
         <v>2.2000000000000002</v>
       </c>
-      <c r="AH6" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="11">
+      <c r="AH6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="4">
         <v>0</v>
       </c>
       <c r="AJ6">
@@ -6525,7 +3725,7 @@
       <c r="AM6">
         <v>5.9979551920341469E-2</v>
       </c>
-      <c r="AN6" s="6">
+      <c r="AN6" s="1">
         <v>23.047005616063728</v>
       </c>
       <c r="AO6">
@@ -6552,7 +3752,7 @@
       <c r="AV6">
         <v>0</v>
       </c>
-      <c r="AW6" s="15">
+      <c r="AW6" s="8">
         <v>12029.597605637409</v>
       </c>
       <c r="AX6">
@@ -6651,7 +3851,7 @@
     </row>
     <row r="7" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B7">
         <v>35.194440999999998</v>
@@ -6665,7 +3865,7 @@
       <c r="E7">
         <v>1011.1</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="6">
         <v>0.25</v>
       </c>
       <c r="G7">
@@ -6695,64 +3895,64 @@
       <c r="O7">
         <v>0</v>
       </c>
-      <c r="P7" s="16">
+      <c r="P7" s="9">
         <v>35.299999999999997</v>
       </c>
-      <c r="Q7" s="17">
+      <c r="Q7" s="10">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="R7" s="16">
+      <c r="R7" s="9">
         <v>0.51</v>
       </c>
-      <c r="S7" s="16">
+      <c r="S7" s="9">
         <v>0.33</v>
       </c>
-      <c r="T7" s="17">
+      <c r="T7" s="10">
         <v>1.6E-2</v>
       </c>
-      <c r="U7" s="16">
+      <c r="U7" s="9">
         <v>0.34</v>
       </c>
-      <c r="V7" s="16">
+      <c r="V7" s="9">
         <v>35.6</v>
       </c>
-      <c r="W7" s="16">
+      <c r="W7" s="9">
         <v>0.03</v>
       </c>
-      <c r="X7" s="16">
+      <c r="X7" s="9">
         <v>0.17</v>
       </c>
-      <c r="Y7" s="11">
+      <c r="Y7" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Z7" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="16">
+      <c r="Z7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="9">
         <v>27.91</v>
       </c>
-      <c r="AB7" s="6">
+      <c r="AB7" s="1">
         <v>18.148112227743091</v>
       </c>
-      <c r="AC7" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="11">
+      <c r="AC7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="4">
         <v>1.2</v>
       </c>
-      <c r="AE7" s="11">
+      <c r="AE7" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AF7" s="11">
+      <c r="AF7" s="4">
         <v>0.6</v>
       </c>
-      <c r="AG7" s="11">
+      <c r="AG7" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AH7" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="11">
+      <c r="AH7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="4">
         <v>0</v>
       </c>
       <c r="AJ7">
@@ -6767,7 +3967,7 @@
       <c r="AM7">
         <v>0</v>
       </c>
-      <c r="AN7" s="6">
+      <c r="AN7" s="1">
         <v>18.148112227743091</v>
       </c>
       <c r="AO7">
@@ -6794,7 +3994,7 @@
       <c r="AV7">
         <v>0</v>
       </c>
-      <c r="AW7" s="15">
+      <c r="AW7" s="8">
         <v>11194.637461776489</v>
       </c>
       <c r="AX7">
@@ -6893,7 +4093,7 @@
     </row>
     <row r="8" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B8">
         <v>35.196648000000003</v>
@@ -6901,13 +4101,13 @@
       <c r="C8">
         <v>24.153645000000001</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="6">
         <v>67</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="2">
         <v>1005.2</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="6">
         <v>0.25</v>
       </c>
       <c r="G8">
@@ -6919,10 +4119,10 @@
       <c r="I8">
         <v>0</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="8">
         <v>202000</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K8" s="3">
         <v>0</v>
       </c>
       <c r="L8">
@@ -6937,79 +4137,79 @@
       <c r="O8">
         <v>0</v>
       </c>
-      <c r="P8" s="16">
+      <c r="P8" s="9">
         <v>39.53</v>
       </c>
-      <c r="Q8" s="17">
+      <c r="Q8" s="10">
         <v>0.02</v>
       </c>
-      <c r="R8" s="16">
+      <c r="R8" s="9">
         <v>0.52</v>
       </c>
-      <c r="S8" s="16">
+      <c r="S8" s="9">
         <v>0.38</v>
       </c>
-      <c r="T8" s="17">
+      <c r="T8" s="10">
         <v>1.6E-2</v>
       </c>
-      <c r="U8" s="16">
+      <c r="U8" s="9">
         <v>0.25</v>
       </c>
-      <c r="V8" s="16">
+      <c r="V8" s="9">
         <v>32.49</v>
       </c>
-      <c r="W8" s="16">
+      <c r="W8" s="9">
         <v>0.03</v>
       </c>
-      <c r="X8" s="16">
+      <c r="X8" s="9">
         <v>0.17</v>
       </c>
-      <c r="Y8" s="11">
+      <c r="Y8" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Z8" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="16">
+      <c r="Z8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="9">
         <v>25.96</v>
       </c>
-      <c r="AB8" s="10">
+      <c r="AB8" s="3">
         <v>15.764332516289066</v>
       </c>
-      <c r="AC8" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="11">
+      <c r="AC8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="4">
         <v>1</v>
       </c>
-      <c r="AE8" s="11">
+      <c r="AE8" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AF8" s="11">
+      <c r="AF8" s="4">
         <v>0.5</v>
       </c>
-      <c r="AG8" s="11">
+      <c r="AG8" s="4">
         <v>0.5</v>
       </c>
-      <c r="AH8" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="11">
+      <c r="AH8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="4">
         <v>5.4561408837890998E-2</v>
       </c>
-      <c r="AK8" s="11">
+      <c r="AK8" s="4">
         <v>56.962981326367114</v>
       </c>
-      <c r="AL8" s="11">
+      <c r="AL8" s="4">
         <v>1.5298254140625629E-3</v>
       </c>
-      <c r="AM8" s="11">
-        <v>0</v>
-      </c>
-      <c r="AN8" s="10">
+      <c r="AM8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="3">
         <v>15.764332516289066</v>
       </c>
       <c r="AO8">
@@ -7036,7 +4236,7 @@
       <c r="AV8">
         <v>0</v>
       </c>
-      <c r="AW8" s="15">
+      <c r="AW8" s="8">
         <v>11495.883229085061</v>
       </c>
       <c r="AX8">
@@ -7135,7 +4335,7 @@
     </row>
     <row r="9" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B9">
         <v>35.193061</v>
@@ -7149,7 +4349,7 @@
       <c r="E9">
         <v>1010.4</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="6">
         <v>0.25</v>
       </c>
       <c r="G9">
@@ -7161,7 +4361,7 @@
       <c r="I9">
         <v>0</v>
       </c>
-      <c r="J9" s="15">
+      <c r="J9" s="8">
         <v>298000</v>
       </c>
       <c r="K9">
@@ -7179,64 +4379,64 @@
       <c r="O9">
         <v>0</v>
       </c>
-      <c r="P9" s="16">
+      <c r="P9" s="9">
         <v>61.93</v>
       </c>
-      <c r="Q9" s="17">
+      <c r="Q9" s="10">
         <v>2.3E-2</v>
       </c>
-      <c r="R9" s="16">
+      <c r="R9" s="9">
         <v>0.57999999999999996</v>
       </c>
-      <c r="S9" s="16">
+      <c r="S9" s="9">
         <v>0.45</v>
       </c>
-      <c r="T9" s="17">
+      <c r="T9" s="10">
         <v>1.2E-2</v>
       </c>
-      <c r="U9" s="16">
+      <c r="U9" s="9">
         <v>0.19</v>
       </c>
-      <c r="V9" s="16">
+      <c r="V9" s="9">
         <v>21.23</v>
       </c>
-      <c r="W9" s="16">
+      <c r="W9" s="9">
         <v>0.04</v>
       </c>
-      <c r="X9" s="16">
+      <c r="X9" s="9">
         <v>0.18</v>
       </c>
-      <c r="Y9" s="11">
+      <c r="Y9" s="4">
         <v>0.05</v>
       </c>
-      <c r="Z9" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="16">
+      <c r="Z9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="9">
         <v>15.96</v>
       </c>
-      <c r="AB9" s="6">
+      <c r="AB9" s="1">
         <v>25.671177210215259</v>
       </c>
-      <c r="AC9" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="11">
+      <c r="AC9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="4">
         <v>1.2</v>
       </c>
-      <c r="AE9" s="11">
+      <c r="AE9" s="4">
         <v>0.9</v>
       </c>
-      <c r="AF9" s="11">
+      <c r="AF9" s="4">
         <v>0.6</v>
       </c>
-      <c r="AG9" s="11">
+      <c r="AG9" s="4">
         <v>2.8</v>
       </c>
-      <c r="AH9" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="11">
+      <c r="AH9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="4">
         <v>0</v>
       </c>
       <c r="AJ9">
@@ -7251,7 +4451,7 @@
       <c r="AM9">
         <v>1.0257331062362811E-2</v>
       </c>
-      <c r="AN9" s="6">
+      <c r="AN9" s="1">
         <v>25.671177210215259</v>
       </c>
       <c r="AO9">
@@ -7278,7 +4478,7 @@
       <c r="AV9">
         <v>0</v>
       </c>
-      <c r="AW9" s="15">
+      <c r="AW9" s="8">
         <v>18343.007955237932</v>
       </c>
       <c r="AX9">
@@ -7377,7 +4577,7 @@
     </row>
     <row r="10" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B10">
         <v>35.193061</v>
@@ -7391,7 +4591,7 @@
       <c r="E10">
         <v>1010.4</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="6">
         <v>0.25</v>
       </c>
       <c r="G10">
@@ -7403,7 +4603,7 @@
       <c r="I10">
         <v>0</v>
       </c>
-      <c r="J10" s="15">
+      <c r="J10" s="8">
         <v>187000</v>
       </c>
       <c r="K10">
@@ -7421,64 +4621,64 @@
       <c r="O10">
         <v>0</v>
       </c>
-      <c r="P10" s="16">
+      <c r="P10" s="9">
         <v>38.909999999999997</v>
       </c>
-      <c r="Q10" s="17">
+      <c r="Q10" s="10">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="R10" s="16">
+      <c r="R10" s="9">
         <v>0.53</v>
       </c>
-      <c r="S10" s="16">
+      <c r="S10" s="9">
         <v>0.39</v>
       </c>
-      <c r="T10" s="17">
+      <c r="T10" s="10">
         <v>1.6E-2</v>
       </c>
-      <c r="U10" s="16">
+      <c r="U10" s="9">
         <v>0.31</v>
       </c>
-      <c r="V10" s="16">
+      <c r="V10" s="9">
         <v>33.65</v>
       </c>
-      <c r="W10" s="16">
+      <c r="W10" s="9">
         <v>0.04</v>
       </c>
-      <c r="X10" s="16">
+      <c r="X10" s="9">
         <v>0.18</v>
       </c>
-      <c r="Y10" s="11">
+      <c r="Y10" s="4">
         <v>0.08</v>
       </c>
-      <c r="Z10" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="16">
+      <c r="Z10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="9">
         <v>26.28</v>
       </c>
       <c r="AB10">
         <v>18.008009771022387</v>
       </c>
-      <c r="AC10" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="11">
+      <c r="AC10" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AE10" s="11">
+      <c r="AE10" s="4">
         <v>1.2</v>
       </c>
-      <c r="AF10" s="11">
+      <c r="AF10" s="4">
         <v>0.6</v>
       </c>
-      <c r="AG10" s="11">
+      <c r="AG10" s="4">
         <v>1.7</v>
       </c>
-      <c r="AH10" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="11">
+      <c r="AH10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="4">
         <v>0</v>
       </c>
       <c r="AJ10">
@@ -7520,7 +4720,7 @@
       <c r="AV10">
         <v>0</v>
       </c>
-      <c r="AW10" s="15">
+      <c r="AW10" s="8">
         <v>10096.911632746682</v>
       </c>
       <c r="AX10">
@@ -7618,19 +4818,19 @@
       </c>
     </row>
     <row r="16" spans="1:80" x14ac:dyDescent="0.25">
-      <c r="AB16" s="6"/>
+      <c r="AB16" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:CF18"/>
   <sheetViews>
-    <sheetView topLeftCell="AK1" workbookViewId="0">
-      <selection activeCell="AX14" sqref="AX14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AW14" sqref="AW14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7641,249 +4841,249 @@
   <sheetData>
     <row r="1" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>20</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>21</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>22</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>23</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>24</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>25</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>26</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AB1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AC1" t="s">
         <v>28</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AD1" t="s">
         <v>29</v>
       </c>
-      <c r="AB1" s="12" t="s">
+      <c r="AE1" t="s">
         <v>30</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AF1" t="s">
         <v>31</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AG1" t="s">
         <v>32</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AH1" t="s">
         <v>33</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AI1" t="s">
         <v>34</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AJ1" t="s">
         <v>35</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AK1" t="s">
         <v>36</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AL1" t="s">
         <v>37</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AM1" t="s">
         <v>38</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AN1" t="s">
         <v>39</v>
       </c>
-      <c r="AL1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>42</v>
-      </c>
       <c r="AO1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR1" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AS1" t="s">
         <v>5</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AT1" t="s">
         <v>6</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AU1" t="s">
         <v>7</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AV1" t="s">
         <v>8</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AW1" t="s">
         <v>9</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AX1" t="s">
         <v>10</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AY1" t="s">
         <v>11</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AZ1" t="s">
         <v>12</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="BA1" t="s">
         <v>13</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BB1" t="s">
         <v>14</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BC1" t="s">
         <v>15</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BD1" t="s">
         <v>16</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BE1" t="s">
         <v>17</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BF1" t="s">
         <v>18</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BG1" t="s">
         <v>19</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BH1" t="s">
         <v>20</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BI1" t="s">
         <v>21</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BJ1" t="s">
         <v>22</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BK1" t="s">
         <v>23</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BL1" t="s">
         <v>24</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BM1" t="s">
         <v>25</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BN1" t="s">
         <v>26</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BO1" t="s">
         <v>27</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BP1" t="s">
         <v>28</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BQ1" t="s">
         <v>29</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BR1" t="s">
         <v>30</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BS1" t="s">
         <v>31</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BT1" t="s">
         <v>32</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BU1" t="s">
         <v>33</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BV1" t="s">
         <v>34</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BW1" t="s">
         <v>35</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BX1" t="s">
         <v>36</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BY1" t="s">
         <v>37</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BZ1" t="s">
         <v>38</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="CA1" t="s">
         <v>39</v>
       </c>
-      <c r="BY1" t="s">
-        <v>40</v>
-      </c>
-      <c r="BZ1" t="s">
-        <v>41</v>
-      </c>
-      <c r="CA1" t="s">
-        <v>42</v>
-      </c>
-      <c r="CB1" s="13" t="s">
-        <v>77</v>
+      <c r="CB1" s="6" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B2">
         <v>35.306624999999997</v>
@@ -7897,7 +5097,7 @@
       <c r="E2">
         <v>992.5</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="6">
         <v>0.25</v>
       </c>
       <c r="G2">
@@ -7927,64 +5127,64 @@
       <c r="O2">
         <v>0</v>
       </c>
-      <c r="P2" s="16">
+      <c r="P2" s="9">
         <v>6.07</v>
       </c>
-      <c r="Q2" s="17">
+      <c r="Q2" s="10">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="R2" s="16">
+      <c r="R2" s="9">
         <v>1.17</v>
       </c>
-      <c r="S2" s="16">
+      <c r="S2" s="9">
         <v>0.89</v>
       </c>
-      <c r="T2" s="17">
+      <c r="T2" s="10">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="U2" s="16">
+      <c r="U2" s="9">
         <v>16.03</v>
       </c>
-      <c r="V2" s="16">
+      <c r="V2" s="9">
         <v>31.42</v>
       </c>
-      <c r="W2" s="16">
+      <c r="W2" s="9">
         <v>0.13</v>
       </c>
-      <c r="X2" s="16">
+      <c r="X2" s="9">
         <v>0.37</v>
       </c>
-      <c r="Y2" s="11">
+      <c r="Y2" s="4">
         <v>0.02</v>
       </c>
-      <c r="Z2" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="16">
+      <c r="Z2" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="9">
         <v>42.52</v>
       </c>
-      <c r="AB2" s="6">
+      <c r="AB2" s="1">
         <v>236.28243923135406</v>
       </c>
-      <c r="AC2" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="11">
+      <c r="AC2" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="4">
         <v>0.8</v>
       </c>
-      <c r="AE2" s="11">
+      <c r="AE2" s="4">
         <v>0.6</v>
       </c>
-      <c r="AF2" s="11">
+      <c r="AF2" s="4">
         <v>2.1</v>
       </c>
-      <c r="AG2" s="11">
+      <c r="AG2" s="4">
         <v>2</v>
       </c>
-      <c r="AH2" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI2" s="11">
+      <c r="AH2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="4">
         <v>0</v>
       </c>
       <c r="AJ2">
@@ -7999,7 +5199,7 @@
       <c r="AM2">
         <v>0.28652249672891072</v>
       </c>
-      <c r="AN2" s="6">
+      <c r="AN2" s="1">
         <v>236.28243923135406</v>
       </c>
       <c r="AO2">
@@ -8026,7 +5226,7 @@
       <c r="AV2">
         <v>0</v>
       </c>
-      <c r="AW2" s="15">
+      <c r="AW2" s="8">
         <v>12316.69746639742</v>
       </c>
       <c r="AX2">
@@ -8125,21 +5325,21 @@
     </row>
     <row r="3" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="14">
+        <v>58</v>
+      </c>
+      <c r="B3" s="7">
         <v>35.305883000000001</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="7">
         <v>23.547284999999999</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="6">
         <v>96</v>
       </c>
       <c r="E3">
         <v>1001.8</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="6">
         <v>0.25</v>
       </c>
       <c r="G3">
@@ -8151,10 +5351,10 @@
       <c r="I3">
         <v>0</v>
       </c>
-      <c r="J3" s="15">
-        <v>65452</v>
-      </c>
-      <c r="K3" s="13">
+      <c r="J3">
+        <v>58199</v>
+      </c>
+      <c r="K3" s="6">
         <v>0</v>
       </c>
       <c r="L3">
@@ -8169,79 +5369,79 @@
       <c r="O3">
         <v>0</v>
       </c>
-      <c r="P3" s="16">
+      <c r="P3" s="9">
         <v>2.75</v>
       </c>
-      <c r="Q3" s="17">
+      <c r="Q3" s="10">
         <v>2.7E-2</v>
       </c>
-      <c r="R3" s="16">
+      <c r="R3" s="9">
         <v>0.65</v>
       </c>
-      <c r="S3" s="16">
+      <c r="S3" s="9">
         <v>0.3</v>
       </c>
-      <c r="T3" s="17">
+      <c r="T3" s="10">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="U3" s="16">
+      <c r="U3" s="9">
         <v>18.3</v>
       </c>
-      <c r="V3" s="16">
+      <c r="V3" s="9">
         <v>31.63</v>
       </c>
-      <c r="W3" s="16">
+      <c r="W3" s="9">
         <v>0.11</v>
       </c>
-      <c r="X3" s="16">
+      <c r="X3" s="9">
         <v>0.27</v>
       </c>
-      <c r="Y3" s="11">
+      <c r="Y3" s="4">
         <v>0.02</v>
       </c>
-      <c r="Z3" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="16">
+      <c r="Z3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="9">
         <v>44.8</v>
       </c>
-      <c r="AB3" s="6">
+      <c r="AB3" s="1">
         <v>312.18308965047237</v>
       </c>
-      <c r="AC3" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="11">
+      <c r="AC3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="4">
         <v>0.5</v>
       </c>
-      <c r="AE3" s="11">
+      <c r="AE3" s="4">
         <v>0.3</v>
       </c>
-      <c r="AF3" s="11">
+      <c r="AF3" s="4">
         <v>1.6</v>
       </c>
-      <c r="AG3" s="11">
+      <c r="AG3" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AH3" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="11">
+      <c r="AH3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="4">
         <v>6.9318677502052992E-2</v>
       </c>
-      <c r="AK3" s="11">
+      <c r="AK3" s="4">
         <v>33.053640666252633</v>
       </c>
-      <c r="AL3" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM3" s="11">
+      <c r="AL3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="4">
         <v>0.13798205156129045</v>
       </c>
-      <c r="AN3" s="6">
+      <c r="AN3" s="1">
         <v>312.18308965047237</v>
       </c>
       <c r="AO3">
@@ -8268,8 +5468,8 @@
       <c r="AV3">
         <v>0</v>
       </c>
-      <c r="AW3" s="15">
-        <v>36807.255485397982</v>
+      <c r="AW3" s="8">
+        <v>39638.469298994882</v>
       </c>
       <c r="AX3">
         <v>0</v>
@@ -8367,21 +5567,21 @@
     </row>
     <row r="4" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="14">
+        <v>59</v>
+      </c>
+      <c r="B4" s="7">
         <v>35.305883000000001</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="7">
         <v>23.547284999999999</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="6">
         <v>106</v>
       </c>
       <c r="E4">
         <v>1000.6</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="6">
         <v>0.25</v>
       </c>
       <c r="G4">
@@ -8393,10 +5593,10 @@
       <c r="I4">
         <v>0</v>
       </c>
-      <c r="J4" s="15">
-        <v>3067</v>
-      </c>
-      <c r="K4" s="13">
+      <c r="J4">
+        <v>843</v>
+      </c>
+      <c r="K4" s="6">
         <v>0</v>
       </c>
       <c r="L4">
@@ -8411,79 +5611,79 @@
       <c r="O4">
         <v>0</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="9">
         <v>2.91</v>
       </c>
-      <c r="Q4" s="17">
+      <c r="Q4" s="10">
         <v>2.7E-2</v>
       </c>
-      <c r="R4" s="16">
+      <c r="R4" s="9">
         <v>0.69</v>
       </c>
-      <c r="S4" s="16">
+      <c r="S4" s="9">
         <v>0.31</v>
       </c>
-      <c r="T4" s="17">
+      <c r="T4" s="10">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="U4" s="16">
+      <c r="U4" s="9">
         <v>17.62</v>
       </c>
-      <c r="V4" s="16">
+      <c r="V4" s="9">
         <v>32.22</v>
       </c>
-      <c r="W4" s="16">
+      <c r="W4" s="9">
         <v>0.09</v>
       </c>
-      <c r="X4" s="16">
+      <c r="X4" s="9">
         <v>0.3</v>
       </c>
-      <c r="Y4" s="11">
+      <c r="Y4" s="4">
         <v>0.03</v>
       </c>
-      <c r="Z4" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="16">
+      <c r="Z4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="9">
         <v>44.63</v>
       </c>
-      <c r="AB4" s="6">
+      <c r="AB4" s="1">
         <v>299.79248291993486</v>
       </c>
-      <c r="AC4" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="11">
+      <c r="AC4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="4">
         <v>0.4</v>
       </c>
-      <c r="AE4" s="11">
+      <c r="AE4" s="4">
         <v>0.3</v>
       </c>
-      <c r="AF4" s="11">
+      <c r="AF4" s="4">
         <v>2.2000000000000002</v>
       </c>
-      <c r="AG4" s="11">
+      <c r="AG4" s="4">
         <v>0.6</v>
       </c>
-      <c r="AH4" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="11">
+      <c r="AH4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="4">
         <v>5.9423650666549609E-2</v>
       </c>
-      <c r="AK4" s="11">
+      <c r="AK4" s="4">
         <v>33.723839906999416</v>
       </c>
-      <c r="AL4" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM4" s="11">
+      <c r="AL4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="4">
         <v>0.14739701290110666</v>
       </c>
-      <c r="AN4" s="6">
+      <c r="AN4" s="1">
         <v>299.79248291993486</v>
       </c>
       <c r="AO4">
@@ -8510,8 +5710,8 @@
       <c r="AV4">
         <v>0</v>
       </c>
-      <c r="AW4" s="15">
-        <v>40163.334854504297</v>
+      <c r="AW4" s="8">
+        <v>40931.503657147019</v>
       </c>
       <c r="AX4">
         <v>0</v>
@@ -8609,7 +5809,7 @@
     </row>
     <row r="5" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B5">
         <v>35.211838</v>
@@ -8623,7 +5823,7 @@
       <c r="E5">
         <v>987.1</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="6">
         <v>0.25</v>
       </c>
       <c r="G5">
@@ -8653,64 +5853,64 @@
       <c r="O5">
         <v>0</v>
       </c>
-      <c r="P5" s="16">
+      <c r="P5" s="9">
         <v>37.64</v>
       </c>
-      <c r="Q5" s="17">
+      <c r="Q5" s="10">
         <v>1.9E-2</v>
       </c>
-      <c r="R5" s="16">
+      <c r="R5" s="9">
         <v>0.45</v>
       </c>
-      <c r="S5" s="16">
+      <c r="S5" s="9">
         <v>0.32</v>
       </c>
-      <c r="T5" s="17">
+      <c r="T5" s="10">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="U5" s="16">
+      <c r="U5" s="9">
         <v>0.54</v>
       </c>
-      <c r="V5" s="16">
+      <c r="V5" s="9">
         <v>33.380000000000003</v>
       </c>
-      <c r="W5" s="16">
+      <c r="W5" s="9">
         <v>0.04</v>
       </c>
-      <c r="X5" s="16">
+      <c r="X5" s="9">
         <v>0.16</v>
       </c>
-      <c r="Y5" s="11">
+      <c r="Y5" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Z5" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="16">
+      <c r="Z5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="9">
         <v>26.9</v>
       </c>
-      <c r="AB5" s="6">
+      <c r="AB5" s="1">
         <v>23.047005616063728</v>
       </c>
-      <c r="AC5" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="11">
+      <c r="AC5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AE5" s="11">
+      <c r="AE5" s="4">
         <v>0.9</v>
       </c>
-      <c r="AF5" s="11">
+      <c r="AF5" s="4">
         <v>0.7</v>
       </c>
-      <c r="AG5" s="11">
+      <c r="AG5" s="4">
         <v>2.2000000000000002</v>
       </c>
-      <c r="AH5" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="11">
+      <c r="AH5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="4">
         <v>0</v>
       </c>
       <c r="AJ5">
@@ -8725,7 +5925,7 @@
       <c r="AM5">
         <v>5.9979551920341469E-2</v>
       </c>
-      <c r="AN5" s="6">
+      <c r="AN5" s="1">
         <v>23.047005616063728</v>
       </c>
       <c r="AO5">
@@ -8752,7 +5952,7 @@
       <c r="AV5">
         <v>0</v>
       </c>
-      <c r="AW5" s="15">
+      <c r="AW5" s="8">
         <v>12029.597605637409</v>
       </c>
       <c r="AX5">
@@ -8849,9 +6049,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:84" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:84" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B6">
         <v>35.194440999999998</v>
@@ -8865,7 +6065,7 @@
       <c r="E6">
         <v>1011.1</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="6">
         <v>0.25</v>
       </c>
       <c r="G6">
@@ -8878,7 +6078,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>192891</v>
+        <v>173901</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -8895,64 +6095,64 @@
       <c r="O6">
         <v>0</v>
       </c>
-      <c r="P6" s="16">
+      <c r="P6" s="9">
         <v>35.299999999999997</v>
       </c>
-      <c r="Q6" s="17">
+      <c r="Q6" s="10">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="R6" s="16">
+      <c r="R6" s="9">
         <v>0.51</v>
       </c>
-      <c r="S6" s="16">
+      <c r="S6" s="9">
         <v>0.33</v>
       </c>
-      <c r="T6" s="17">
+      <c r="T6" s="10">
         <v>1.6E-2</v>
       </c>
-      <c r="U6" s="16">
+      <c r="U6" s="9">
         <v>0.34</v>
       </c>
-      <c r="V6" s="16">
+      <c r="V6" s="9">
         <v>35.6</v>
       </c>
-      <c r="W6" s="16">
+      <c r="W6" s="9">
         <v>0.03</v>
       </c>
-      <c r="X6" s="16">
+      <c r="X6" s="9">
         <v>0.17</v>
       </c>
-      <c r="Y6" s="11">
+      <c r="Y6" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Z6" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="16">
+      <c r="Z6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="9">
         <v>27.91</v>
       </c>
-      <c r="AB6" s="6">
+      <c r="AB6" s="1">
         <v>18.148112227743091</v>
       </c>
-      <c r="AC6" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="11">
+      <c r="AC6" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="4">
         <v>1.2</v>
       </c>
-      <c r="AE6" s="11">
+      <c r="AE6" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AF6" s="11">
+      <c r="AF6" s="4">
         <v>0.6</v>
       </c>
-      <c r="AG6" s="11">
+      <c r="AG6" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AH6" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="11">
+      <c r="AH6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="4">
         <v>0</v>
       </c>
       <c r="AJ6">
@@ -8967,7 +6167,7 @@
       <c r="AM6">
         <v>0</v>
       </c>
-      <c r="AN6" s="6">
+      <c r="AN6" s="1">
         <v>18.148112227743091</v>
       </c>
       <c r="AO6">
@@ -8994,8 +6194,8 @@
       <c r="AV6">
         <v>0</v>
       </c>
-      <c r="AW6" s="15">
-        <v>12824.096221590415</v>
+      <c r="AW6" s="8">
+        <v>16005.331264944489</v>
       </c>
       <c r="AX6">
         <v>0</v>
@@ -9097,7 +6297,7 @@
     </row>
     <row r="7" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B7">
         <v>35.196648000000003</v>
@@ -9105,13 +6305,13 @@
       <c r="C7">
         <v>24.153645000000001</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="6">
         <v>67</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="2">
         <v>1005.2</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="6">
         <v>0.25</v>
       </c>
       <c r="G7">
@@ -9123,10 +6323,10 @@
       <c r="I7">
         <v>0</v>
       </c>
-      <c r="J7" s="15">
-        <v>111885</v>
-      </c>
-      <c r="K7" s="10">
+      <c r="J7">
+        <v>106003</v>
+      </c>
+      <c r="K7" s="3">
         <v>0</v>
       </c>
       <c r="L7">
@@ -9141,79 +6341,79 @@
       <c r="O7">
         <v>0</v>
       </c>
-      <c r="P7" s="16">
+      <c r="P7" s="9">
         <v>39.53</v>
       </c>
-      <c r="Q7" s="17">
+      <c r="Q7" s="10">
         <v>0.02</v>
       </c>
-      <c r="R7" s="16">
+      <c r="R7" s="9">
         <v>0.52</v>
       </c>
-      <c r="S7" s="16">
+      <c r="S7" s="9">
         <v>0.38</v>
       </c>
-      <c r="T7" s="17">
+      <c r="T7" s="10">
         <v>1.6E-2</v>
       </c>
-      <c r="U7" s="16">
+      <c r="U7" s="9">
         <v>0.25</v>
       </c>
-      <c r="V7" s="16">
+      <c r="V7" s="9">
         <v>32.49</v>
       </c>
-      <c r="W7" s="16">
+      <c r="W7" s="9">
         <v>0.03</v>
       </c>
-      <c r="X7" s="16">
+      <c r="X7" s="9">
         <v>0.17</v>
       </c>
-      <c r="Y7" s="11">
+      <c r="Y7" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Z7" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="16">
+      <c r="Z7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="9">
         <v>25.96</v>
       </c>
-      <c r="AB7" s="10">
+      <c r="AB7" s="3">
         <v>15.764332516289066</v>
       </c>
-      <c r="AC7" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="11">
+      <c r="AC7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="4">
         <v>1</v>
       </c>
-      <c r="AE7" s="11">
+      <c r="AE7" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AF7" s="11">
+      <c r="AF7" s="4">
         <v>0.5</v>
       </c>
-      <c r="AG7" s="11">
+      <c r="AG7" s="4">
         <v>0.5</v>
       </c>
-      <c r="AH7" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="11">
+      <c r="AH7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="4">
         <v>5.4561408837890998E-2</v>
       </c>
-      <c r="AK7" s="11">
+      <c r="AK7" s="4">
         <v>56.962981326367114</v>
       </c>
-      <c r="AL7" s="11">
+      <c r="AL7" s="4">
         <v>1.5298254140625629E-3</v>
       </c>
-      <c r="AM7" s="11">
-        <v>0</v>
-      </c>
-      <c r="AN7" s="10">
+      <c r="AM7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="3">
         <v>15.764332516289066</v>
       </c>
       <c r="AO7">
@@ -9240,8 +6440,8 @@
       <c r="AV7">
         <v>0</v>
       </c>
-      <c r="AW7" s="15">
-        <v>16807.363035787592</v>
+      <c r="AW7" s="8">
+        <v>17899.545558945319</v>
       </c>
       <c r="AX7">
         <v>0</v>
@@ -9336,12 +6536,12 @@
       <c r="CB7">
         <v>0</v>
       </c>
-      <c r="CC7" s="10"/>
-      <c r="CD7" s="10"/>
+      <c r="CC7" s="3"/>
+      <c r="CD7" s="3"/>
     </row>
     <row r="8" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B8">
         <v>35.193061</v>
@@ -9355,7 +6555,7 @@
       <c r="E8">
         <v>1010.4</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="6">
         <v>0.25</v>
       </c>
       <c r="G8">
@@ -9367,8 +6567,8 @@
       <c r="I8">
         <v>0</v>
       </c>
-      <c r="J8" s="15">
-        <v>280415</v>
+      <c r="J8">
+        <v>274592</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -9385,64 +6585,64 @@
       <c r="O8">
         <v>0</v>
       </c>
-      <c r="P8" s="16">
+      <c r="P8" s="9">
         <v>61.93</v>
       </c>
-      <c r="Q8" s="17">
+      <c r="Q8" s="10">
         <v>2.3E-2</v>
       </c>
-      <c r="R8" s="16">
+      <c r="R8" s="9">
         <v>0.57999999999999996</v>
       </c>
-      <c r="S8" s="16">
+      <c r="S8" s="9">
         <v>0.45</v>
       </c>
-      <c r="T8" s="17">
+      <c r="T8" s="10">
         <v>1.2E-2</v>
       </c>
-      <c r="U8" s="16">
+      <c r="U8" s="9">
         <v>0.19</v>
       </c>
-      <c r="V8" s="16">
+      <c r="V8" s="9">
         <v>21.23</v>
       </c>
-      <c r="W8" s="16">
+      <c r="W8" s="9">
         <v>0.04</v>
       </c>
-      <c r="X8" s="16">
+      <c r="X8" s="9">
         <v>0.18</v>
       </c>
-      <c r="Y8" s="11">
+      <c r="Y8" s="4">
         <v>0.05</v>
       </c>
-      <c r="Z8" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="16">
+      <c r="Z8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="9">
         <v>15.96</v>
       </c>
-      <c r="AB8" s="6">
+      <c r="AB8" s="1">
         <v>25.671177210215259</v>
       </c>
-      <c r="AC8" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="11">
+      <c r="AC8" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="4">
         <v>1.2</v>
       </c>
-      <c r="AE8" s="11">
+      <c r="AE8" s="4">
         <v>0.9</v>
       </c>
-      <c r="AF8" s="11">
+      <c r="AF8" s="4">
         <v>0.6</v>
       </c>
-      <c r="AG8" s="11">
+      <c r="AG8" s="4">
         <v>2.8</v>
       </c>
-      <c r="AH8" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="11">
+      <c r="AH8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="4">
         <v>0</v>
       </c>
       <c r="AJ8">
@@ -9457,7 +6657,7 @@
       <c r="AM8">
         <v>1.0257331062362811E-2</v>
       </c>
-      <c r="AN8" s="6">
+      <c r="AN8" s="1">
         <v>25.671177210215259</v>
       </c>
       <c r="AO8">
@@ -9484,8 +6684,8 @@
       <c r="AV8">
         <v>0</v>
       </c>
-      <c r="AW8" s="15">
-        <v>19260.576752681161</v>
+      <c r="AW8" s="8">
+        <v>19899.426269265205</v>
       </c>
       <c r="AX8">
         <v>0</v>
@@ -9580,12 +6780,12 @@
       <c r="CB8">
         <v>0</v>
       </c>
-      <c r="CC8" s="10"/>
-      <c r="CD8" s="10"/>
+      <c r="CC8" s="3"/>
+      <c r="CD8" s="3"/>
     </row>
     <row r="9" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B9">
         <v>35.193061</v>
@@ -9599,7 +6799,7 @@
       <c r="E9">
         <v>1010.4</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="6">
         <v>0.25</v>
       </c>
       <c r="G9">
@@ -9611,8 +6811,8 @@
       <c r="I9">
         <v>0</v>
       </c>
-      <c r="J9" s="15">
-        <v>172289</v>
+      <c r="J9">
+        <v>166663</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -9629,64 +6829,64 @@
       <c r="O9">
         <v>0</v>
       </c>
-      <c r="P9" s="16">
+      <c r="P9" s="9">
         <v>38.909999999999997</v>
       </c>
-      <c r="Q9" s="17">
+      <c r="Q9" s="10">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="R9" s="16">
+      <c r="R9" s="9">
         <v>0.53</v>
       </c>
-      <c r="S9" s="16">
+      <c r="S9" s="9">
         <v>0.39</v>
       </c>
-      <c r="T9" s="17">
+      <c r="T9" s="10">
         <v>1.6E-2</v>
       </c>
-      <c r="U9" s="16">
+      <c r="U9" s="9">
         <v>0.31</v>
       </c>
-      <c r="V9" s="16">
+      <c r="V9" s="9">
         <v>33.65</v>
       </c>
-      <c r="W9" s="16">
+      <c r="W9" s="9">
         <v>0.04</v>
       </c>
-      <c r="X9" s="16">
+      <c r="X9" s="9">
         <v>0.18</v>
       </c>
-      <c r="Y9" s="11">
+      <c r="Y9" s="4">
         <v>0.08</v>
       </c>
-      <c r="Z9" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="16">
+      <c r="Z9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="9">
         <v>26.28</v>
       </c>
       <c r="AB9">
         <v>18.008009771022387</v>
       </c>
-      <c r="AC9" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="11">
+      <c r="AC9" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AE9" s="11">
+      <c r="AE9" s="4">
         <v>1.2</v>
       </c>
-      <c r="AF9" s="11">
+      <c r="AF9" s="4">
         <v>0.6</v>
       </c>
-      <c r="AG9" s="11">
+      <c r="AG9" s="4">
         <v>1.7</v>
       </c>
-      <c r="AH9" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="11">
+      <c r="AH9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="4">
         <v>0</v>
       </c>
       <c r="AJ9">
@@ -9728,8 +6928,8 @@
       <c r="AV9">
         <v>0</v>
       </c>
-      <c r="AW9" s="15">
-        <v>11336.738927905822</v>
+      <c r="AW9" s="8">
+        <v>12225.991187609096</v>
       </c>
       <c r="AX9">
         <v>0</v>
@@ -9824,23 +7024,23 @@
       <c r="CB9">
         <v>0</v>
       </c>
-      <c r="CC9" s="10"/>
-      <c r="CD9" s="10"/>
+      <c r="CC9" s="3"/>
+      <c r="CD9" s="3"/>
     </row>
     <row r="18" spans="28:28" x14ac:dyDescent="0.25">
-      <c r="AB18" s="6"/>
+      <c r="AB18" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:CF14"/>
   <sheetViews>
-    <sheetView topLeftCell="AQ1" workbookViewId="0">
-      <selection activeCell="AW7" sqref="AW7"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AW10" sqref="AW10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9851,249 +7051,249 @@
   <sheetData>
     <row r="1" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>20</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>21</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>22</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>23</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>24</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>25</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>26</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AB1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AC1" t="s">
         <v>28</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AD1" t="s">
         <v>29</v>
       </c>
-      <c r="AB1" s="12" t="s">
+      <c r="AE1" t="s">
         <v>30</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AF1" t="s">
         <v>31</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AG1" t="s">
         <v>32</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AH1" t="s">
         <v>33</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AI1" t="s">
         <v>34</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AJ1" t="s">
         <v>35</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AK1" t="s">
         <v>36</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AL1" t="s">
         <v>37</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AM1" t="s">
         <v>38</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AN1" t="s">
         <v>39</v>
       </c>
-      <c r="AL1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>42</v>
-      </c>
       <c r="AO1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR1" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AS1" t="s">
         <v>5</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AT1" t="s">
         <v>6</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AU1" t="s">
         <v>7</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AV1" t="s">
         <v>8</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AW1" t="s">
         <v>9</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AX1" t="s">
         <v>10</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AY1" t="s">
         <v>11</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AZ1" t="s">
         <v>12</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="BA1" t="s">
         <v>13</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BB1" t="s">
         <v>14</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BC1" t="s">
         <v>15</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BD1" t="s">
         <v>16</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BE1" t="s">
         <v>17</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BF1" t="s">
         <v>18</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BG1" t="s">
         <v>19</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BH1" t="s">
         <v>20</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BI1" t="s">
         <v>21</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BJ1" t="s">
         <v>22</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BK1" t="s">
         <v>23</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BL1" t="s">
         <v>24</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BM1" t="s">
         <v>25</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BN1" t="s">
         <v>26</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BO1" t="s">
         <v>27</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BP1" t="s">
         <v>28</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BQ1" t="s">
         <v>29</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BR1" t="s">
         <v>30</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BS1" t="s">
         <v>31</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BT1" t="s">
         <v>32</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BU1" t="s">
         <v>33</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BV1" t="s">
         <v>34</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BW1" t="s">
         <v>35</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BX1" t="s">
         <v>36</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BY1" t="s">
         <v>37</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BZ1" t="s">
         <v>38</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="CA1" t="s">
         <v>39</v>
       </c>
-      <c r="BY1" t="s">
-        <v>40</v>
-      </c>
-      <c r="BZ1" t="s">
-        <v>41</v>
-      </c>
-      <c r="CA1" t="s">
-        <v>42</v>
-      </c>
-      <c r="CB1" s="13" t="s">
-        <v>77</v>
+      <c r="CB1" s="6" t="s">
+        <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:84" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:84" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B2">
         <v>35.194440999999998</v>
@@ -10107,7 +7307,7 @@
       <c r="E2">
         <v>1011.1</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="6">
         <v>0.25</v>
       </c>
       <c r="G2">
@@ -10120,7 +7320,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>173182</v>
+        <v>182770</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -10137,64 +7337,64 @@
       <c r="O2">
         <v>0</v>
       </c>
-      <c r="P2" s="16">
+      <c r="P2" s="9">
         <v>35.299999999999997</v>
       </c>
-      <c r="Q2" s="17">
+      <c r="Q2" s="10">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="R2" s="16">
+      <c r="R2" s="9">
         <v>0.51</v>
       </c>
-      <c r="S2" s="16">
+      <c r="S2" s="9">
         <v>0.33</v>
       </c>
-      <c r="T2" s="17">
+      <c r="T2" s="10">
         <v>1.6E-2</v>
       </c>
-      <c r="U2" s="16">
+      <c r="U2" s="9">
         <v>0.34</v>
       </c>
-      <c r="V2" s="16">
+      <c r="V2" s="9">
         <v>35.6</v>
       </c>
-      <c r="W2" s="16">
+      <c r="W2" s="9">
         <v>0.03</v>
       </c>
-      <c r="X2" s="16">
+      <c r="X2" s="9">
         <v>0.17</v>
       </c>
-      <c r="Y2" s="11">
+      <c r="Y2" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Z2" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="16">
+      <c r="Z2" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="9">
         <v>27.91</v>
       </c>
-      <c r="AB2" s="6">
+      <c r="AB2" s="1">
         <v>18.148112227743091</v>
       </c>
-      <c r="AC2" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="11">
+      <c r="AC2" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="4">
         <v>1.2</v>
       </c>
-      <c r="AE2" s="11">
+      <c r="AE2" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AF2" s="11">
+      <c r="AF2" s="4">
         <v>0.6</v>
       </c>
-      <c r="AG2" s="11">
+      <c r="AG2" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AH2" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI2" s="11">
+      <c r="AH2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="4">
         <v>0</v>
       </c>
       <c r="AJ2">
@@ -10209,7 +7409,7 @@
       <c r="AM2">
         <v>0</v>
       </c>
-      <c r="AN2" s="6">
+      <c r="AN2" s="1">
         <v>18.148112227743091</v>
       </c>
       <c r="AO2">
@@ -10236,8 +7436,8 @@
       <c r="AV2">
         <v>0</v>
       </c>
-      <c r="AW2" s="15">
-        <v>16482.030120728745</v>
+      <c r="AW2" s="8">
+        <v>13588.256396631967</v>
       </c>
       <c r="AX2">
         <v>0</v>
@@ -10339,7 +7539,7 @@
     </row>
     <row r="3" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B3">
         <v>35.196648000000003</v>
@@ -10347,13 +7547,13 @@
       <c r="C3">
         <v>24.153645000000001</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="6">
         <v>67</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="2">
         <v>1005.2</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="6">
         <v>0.25</v>
       </c>
       <c r="G3">
@@ -10365,10 +7565,10 @@
       <c r="I3">
         <v>0</v>
       </c>
-      <c r="J3" s="15">
-        <v>103419</v>
-      </c>
-      <c r="K3" s="10">
+      <c r="J3">
+        <v>111885</v>
+      </c>
+      <c r="K3" s="3">
         <v>0</v>
       </c>
       <c r="L3">
@@ -10383,79 +7583,79 @@
       <c r="O3">
         <v>0</v>
       </c>
-      <c r="P3" s="16">
+      <c r="P3" s="9">
         <v>39.53</v>
       </c>
-      <c r="Q3" s="17">
+      <c r="Q3" s="10">
         <v>0.02</v>
       </c>
-      <c r="R3" s="16">
+      <c r="R3" s="9">
         <v>0.52</v>
       </c>
-      <c r="S3" s="16">
+      <c r="S3" s="9">
         <v>0.38</v>
       </c>
-      <c r="T3" s="17">
+      <c r="T3" s="10">
         <v>1.6E-2</v>
       </c>
-      <c r="U3" s="16">
+      <c r="U3" s="9">
         <v>0.25</v>
       </c>
-      <c r="V3" s="16">
+      <c r="V3" s="9">
         <v>32.49</v>
       </c>
-      <c r="W3" s="16">
+      <c r="W3" s="9">
         <v>0.03</v>
       </c>
-      <c r="X3" s="16">
+      <c r="X3" s="9">
         <v>0.17</v>
       </c>
-      <c r="Y3" s="11">
+      <c r="Y3" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Z3" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="16">
+      <c r="Z3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="9">
         <v>25.96</v>
       </c>
-      <c r="AB3" s="10">
+      <c r="AB3" s="3">
         <v>15.764332516289066</v>
       </c>
-      <c r="AC3" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="11">
+      <c r="AC3" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="4">
         <v>1</v>
       </c>
-      <c r="AE3" s="11">
+      <c r="AE3" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AF3" s="11">
+      <c r="AF3" s="4">
         <v>0.5</v>
       </c>
-      <c r="AG3" s="11">
+      <c r="AG3" s="4">
         <v>0.5</v>
       </c>
-      <c r="AH3" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="11">
+      <c r="AH3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="4">
         <v>5.4561408837890998E-2</v>
       </c>
-      <c r="AK3" s="11">
+      <c r="AK3" s="4">
         <v>56.962981326367114</v>
       </c>
-      <c r="AL3" s="11">
+      <c r="AL3" s="4">
         <v>1.5298254140625629E-3</v>
       </c>
-      <c r="AM3" s="11">
-        <v>0</v>
-      </c>
-      <c r="AN3" s="10">
+      <c r="AM3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="3">
         <v>15.764332516289066</v>
       </c>
       <c r="AO3">
@@ -10482,8 +7682,8 @@
       <c r="AV3">
         <v>0</v>
       </c>
-      <c r="AW3" s="15">
-        <v>17850.53688875377</v>
+      <c r="AW3" s="8">
+        <v>16807.363035787592</v>
       </c>
       <c r="AX3">
         <v>0</v>
@@ -10578,12 +7778,12 @@
       <c r="CB3">
         <v>0</v>
       </c>
-      <c r="CC3" s="10"/>
-      <c r="CD3" s="10"/>
+      <c r="CC3" s="3"/>
+      <c r="CD3" s="3"/>
     </row>
     <row r="4" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B4">
         <v>35.193061</v>
@@ -10597,7 +7797,7 @@
       <c r="E4">
         <v>1010.4</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="6">
         <v>0.25</v>
       </c>
       <c r="G4">
@@ -10609,8 +7809,8 @@
       <c r="I4">
         <v>0</v>
       </c>
-      <c r="J4" s="15">
-        <v>273800</v>
+      <c r="J4">
+        <v>280415</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -10627,64 +7827,64 @@
       <c r="O4">
         <v>0</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="9">
         <v>61.93</v>
       </c>
-      <c r="Q4" s="17">
+      <c r="Q4" s="10">
         <v>2.3E-2</v>
       </c>
-      <c r="R4" s="16">
+      <c r="R4" s="9">
         <v>0.57999999999999996</v>
       </c>
-      <c r="S4" s="16">
+      <c r="S4" s="9">
         <v>0.45</v>
       </c>
-      <c r="T4" s="17">
+      <c r="T4" s="10">
         <v>1.2E-2</v>
       </c>
-      <c r="U4" s="16">
+      <c r="U4" s="9">
         <v>0.19</v>
       </c>
-      <c r="V4" s="16">
+      <c r="V4" s="9">
         <v>21.23</v>
       </c>
-      <c r="W4" s="16">
+      <c r="W4" s="9">
         <v>0.04</v>
       </c>
-      <c r="X4" s="16">
+      <c r="X4" s="9">
         <v>0.18</v>
       </c>
-      <c r="Y4" s="11">
+      <c r="Y4" s="4">
         <v>0.05</v>
       </c>
-      <c r="Z4" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="16">
+      <c r="Z4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="9">
         <v>15.96</v>
       </c>
-      <c r="AB4" s="6">
+      <c r="AB4" s="1">
         <v>25.671177210215259</v>
       </c>
-      <c r="AC4" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="11">
+      <c r="AC4" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="4">
         <v>1.2</v>
       </c>
-      <c r="AE4" s="11">
+      <c r="AE4" s="4">
         <v>0.9</v>
       </c>
-      <c r="AF4" s="11">
+      <c r="AF4" s="4">
         <v>0.6</v>
       </c>
-      <c r="AG4" s="11">
+      <c r="AG4" s="4">
         <v>2.8</v>
       </c>
-      <c r="AH4" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="11">
+      <c r="AH4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="4">
         <v>0</v>
       </c>
       <c r="AJ4">
@@ -10699,7 +7899,7 @@
       <c r="AM4">
         <v>1.0257331062362811E-2</v>
       </c>
-      <c r="AN4" s="6">
+      <c r="AN4" s="1">
         <v>25.671177210215259</v>
       </c>
       <c r="AO4">
@@ -10726,8 +7926,8 @@
       <c r="AV4">
         <v>0</v>
       </c>
-      <c r="AW4" s="15">
-        <v>20030.078802788623</v>
+      <c r="AW4" s="8">
+        <v>19260.576752681161</v>
       </c>
       <c r="AX4">
         <v>0</v>
@@ -10822,12 +8022,12 @@
       <c r="CB4">
         <v>0</v>
       </c>
-      <c r="CC4" s="10"/>
-      <c r="CD4" s="10"/>
+      <c r="CC4" s="3"/>
+      <c r="CD4" s="3"/>
     </row>
     <row r="5" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B5">
         <v>35.193061</v>
@@ -10841,7 +8041,7 @@
       <c r="E5">
         <v>1010.4</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="6">
         <v>0.25</v>
       </c>
       <c r="G5">
@@ -10853,8 +8053,8 @@
       <c r="I5">
         <v>0</v>
       </c>
-      <c r="J5" s="15">
-        <v>166177</v>
+      <c r="J5">
+        <v>172289</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -10871,64 +8071,64 @@
       <c r="O5">
         <v>0</v>
       </c>
-      <c r="P5" s="16">
+      <c r="P5" s="9">
         <v>38.909999999999997</v>
       </c>
-      <c r="Q5" s="17">
+      <c r="Q5" s="10">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="R5" s="16">
+      <c r="R5" s="9">
         <v>0.53</v>
       </c>
-      <c r="S5" s="16">
+      <c r="S5" s="9">
         <v>0.39</v>
       </c>
-      <c r="T5" s="17">
+      <c r="T5" s="10">
         <v>1.6E-2</v>
       </c>
-      <c r="U5" s="16">
+      <c r="U5" s="9">
         <v>0.31</v>
       </c>
-      <c r="V5" s="16">
+      <c r="V5" s="9">
         <v>33.65</v>
       </c>
-      <c r="W5" s="16">
+      <c r="W5" s="9">
         <v>0.04</v>
       </c>
-      <c r="X5" s="16">
+      <c r="X5" s="9">
         <v>0.18</v>
       </c>
-      <c r="Y5" s="11">
+      <c r="Y5" s="4">
         <v>0.08</v>
       </c>
-      <c r="Z5" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="16">
+      <c r="Z5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="9">
         <v>26.28</v>
       </c>
       <c r="AB5">
         <v>18.008009771022387</v>
       </c>
-      <c r="AC5" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="11">
+      <c r="AC5" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AE5" s="11">
+      <c r="AE5" s="4">
         <v>1.2</v>
       </c>
-      <c r="AF5" s="11">
+      <c r="AF5" s="4">
         <v>0.6</v>
       </c>
-      <c r="AG5" s="11">
+      <c r="AG5" s="4">
         <v>1.7</v>
       </c>
-      <c r="AH5" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="11">
+      <c r="AH5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="4">
         <v>0</v>
       </c>
       <c r="AJ5">
@@ -10970,8 +8170,8 @@
       <c r="AV5">
         <v>0</v>
       </c>
-      <c r="AW5" s="15">
-        <v>12434.877905291039</v>
+      <c r="AW5" s="8">
+        <v>11336.738927905822</v>
       </c>
       <c r="AX5">
         <v>0</v>
@@ -11066,11 +8266,11 @@
       <c r="CB5">
         <v>0</v>
       </c>
-      <c r="CC5" s="10"/>
-      <c r="CD5" s="10"/>
+      <c r="CC5" s="3"/>
+      <c r="CD5" s="3"/>
     </row>
     <row r="14" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="AB14" s="6"/>
+      <c r="AB14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
